--- a/data/Current_Comparison_SVM_RF/calculated_combined_data.xlsx
+++ b/data/Current_Comparison_SVM_RF/calculated_combined_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,21 @@
           <t>Support Vector Machine ensembles</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>intersect gene names</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Random Forest gene names</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Support Vector Machine gene names</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -475,10 +490,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8551282051282045</v>
+        <v>0.8551282051282048</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9272846811308345</v>
+        <v>0.9272846811308348</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -487,12 +502,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'ENSG00000203875', 'ENSG00000269893', 'ENSG00000204387'}</t>
+          <t>{'ENSG00000204387', 'ENSG00000269893', 'ENSG00000203875'}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'ENSG00000236977', 'ENSG00000241772', 'ENSG00000155428'}</t>
+          <t>{'ENSG00000155428', 'ENSG00000241772', 'ENSG00000236977'}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['C6orf48', 'SNHG8', 'SNHG5']</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>['TRIM74', 'AC092620.2', 'ANKRD44-IT1']</t>
         </is>
       </c>
     </row>
@@ -506,10 +536,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8589743589743586</v>
+        <v>0.8589743589743587</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9484549638395789</v>
+        <v>0.9484549638395791</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -518,12 +548,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'ENSG00000203875', 'ENSG00000179085', 'ENSG00000204387'}</t>
+          <t>{'ENSG00000179085', 'ENSG00000204387', 'ENSG00000203875'}</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'ENSG00000236977', 'ENSG00000241772', 'ENSG00000155428'}</t>
+          <t>{'ENSG00000155428', 'ENSG00000241772', 'ENSG00000236977'}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['SNHG8']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['DPM3', 'C6orf48', 'SNHG5']</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>['TRIM74', 'AC092620.2', 'ANKRD44-IT1']</t>
         </is>
       </c>
     </row>
@@ -537,7 +582,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8589743589743586</v>
+        <v>0.8589743589743587</v>
       </c>
       <c r="D4" t="n">
         <v>0.9462853385930305</v>
@@ -549,12 +594,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'ENSG00000203875', 'ENSG00000204387', 'ENSG00000179085', 'ENSG00000111678'}</t>
+          <t>{'ENSG00000111678', 'ENSG00000204387', 'ENSG00000203875', 'ENSG00000179085'}</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000241772', 'ENSG00000236977', 'ENSG00000155428'}</t>
+          <t>{'ENSG00000155428', 'ENSG00000241772', 'ENSG00000236977', 'ENSG00000188290'}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['SNHG8']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['C12orf57', 'C6orf48', 'SNHG5', 'DPM3']</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>['TRIM74', 'AC092620.2', 'ANKRD44-IT1', 'HES4']</t>
         </is>
       </c>
     </row>
@@ -568,10 +628,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8794871794871795</v>
+        <v>0.879487179487179</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9503616042077581</v>
+        <v>0.9503616042077577</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -580,12 +640,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'ENSG00000179085', 'ENSG00000233493', 'ENSG00000203875', 'ENSG00000204387', 'ENSG00000278771'}</t>
+          <t>{'ENSG00000203875', 'ENSG00000278771', 'ENSG00000204387', 'ENSG00000233493', 'ENSG00000179085'}</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000236977', 'ENSG00000241772', 'ENSG00000155428', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000241772', 'ENSG00000155428', 'ENSG00000236977', 'ENSG00000173210', 'ENSG00000188290'}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['SNHG8']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['SNHG5', 'Metazoa_SRP', 'C6orf48', 'TMEM238', 'DPM3']</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>['AC092620.2', 'TRIM74', 'ANKRD44-IT1', 'ABLIM3', 'HES4']</t>
         </is>
       </c>
     </row>
@@ -602,7 +677,7 @@
         <v>0.856410256410256</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9421433267587116</v>
+        <v>0.9421433267587112</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -611,12 +686,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000179085', 'ENSG00000233493', 'ENSG00000203875', 'ENSG00000204387', 'ENSG00000278771'}</t>
+          <t>{'ENSG00000203875', 'ENSG00000141933', 'ENSG00000278771', 'ENSG00000204387', 'ENSG00000233493', 'ENSG00000179085'}</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000236977', 'ENSG00000241772', 'ENSG00000257246', 'ENSG00000155428', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000241772', 'ENSG00000155428', 'ENSG00000188290', 'ENSG00000236977', 'ENSG00000173210', 'ENSG00000257246'}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['SNHG8']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['SNHG5', 'TPGS1', 'Metazoa_SRP', 'C6orf48', 'TMEM238', 'DPM3']</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>['AC092620.2', 'TRIM74', 'HES4', 'ANKRD44-IT1', 'ABLIM3', 'PHBP19']</t>
         </is>
       </c>
     </row>
@@ -630,10 +720,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8910256410256405</v>
+        <v>0.8910256410256406</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9725180802103874</v>
+        <v>0.9725180802103877</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -642,12 +732,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000179085', 'ENSG00000236552', 'ENSG00000233493', 'ENSG00000203875', 'ENSG00000204387', 'ENSG00000278771'}</t>
+          <t>{'ENSG00000203875', 'ENSG00000141933', 'ENSG00000236552', 'ENSG00000278771', 'ENSG00000204387', 'ENSG00000233493', 'ENSG00000179085'}</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000236977', 'ENSG00000241772', 'ENSG00000257246', 'ENSG00000161911', 'ENSG00000155428', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000241772', 'ENSG00000155428', 'ENSG00000188290', 'ENSG00000236977', 'ENSG00000173210', 'ENSG00000257246'}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['SNHG8']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['SNHG5', 'TPGS1', 'RPL13AP5', 'Metazoa_SRP', 'C6orf48', 'TMEM238', 'DPM3']</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>['TREML1', 'AC092620.2', 'TRIM74', 'HES4', 'ANKRD44-IT1', 'ABLIM3', 'PHBP19']</t>
         </is>
       </c>
     </row>
@@ -661,24 +766,39 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8666666666666665</v>
+        <v>0.8666666666666663</v>
       </c>
       <c r="D8" t="n">
         <v>0.969230769230769</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000233493', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000233493', 'ENSG00000188290', 'ENSG00000269893'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000179085', 'ENSG00000236552', 'ENSG00000203875', 'ENSG00000204387', 'ENSG00000225864'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000203875', 'ENSG00000141933', 'ENSG00000236552', 'ENSG00000204387', 'ENSG00000179085'}</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'ENSG00000236977', 'ENSG00000241772', 'ENSG00000257246', 'ENSG00000161911', 'ENSG00000155428', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000241772', 'ENSG00000155428', 'ENSG00000236977', 'ENSG00000173210', 'ENSG00000257246'}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['TMEM238', 'HES4', 'SNHG8']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'SNHG5', 'TPGS1', 'RPL13AP5', 'C6orf48', 'DPM3']</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>['TREML1', 'AC092620.2', 'TRIM74', 'ANKRD44-IT1', 'ABLIM3', 'PHBP19']</t>
         </is>
       </c>
     </row>
@@ -692,24 +812,39 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.902564102564102</v>
+        <v>0.9025641025641022</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9754109138724525</v>
+        <v>0.9754109138724523</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000233493', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000233493', 'ENSG00000188290', 'ENSG00000269893'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'ENSG00000179085', 'ENSG00000111678', 'ENSG00000236552', 'ENSG00000203875', 'ENSG00000204387', 'ENSG00000278771', 'ENSG00000272906'}</t>
+          <t>{'ENSG00000203875', 'ENSG00000236552', 'ENSG00000278771', 'ENSG00000204387', 'ENSG00000272906', 'ENSG00000111678', 'ENSG00000179085'}</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'ENSG00000236977', 'ENSG00000241772', 'ENSG00000211644', 'ENSG00000257246', 'ENSG00000161911', 'ENSG00000155428', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000241772', 'ENSG00000155428', 'ENSG00000236977', 'ENSG00000173210', 'ENSG00000211644', 'ENSG00000257246'}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['TMEM238', 'HES4', 'SNHG8']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['SNHG5', 'RPL13AP5', 'Metazoa_SRP', 'C6orf48', 'RP11-533E19.7', 'C12orf57', 'DPM3']</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>['TREML1', 'AC092620.2', 'TRIM74', 'ANKRD44-IT1', 'ABLIM3', 'IGLV1-51', 'PHBP19']</t>
         </is>
       </c>
     </row>
@@ -723,24 +858,39 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8910256410256405</v>
+        <v>0.8910256410256406</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9731097961867194</v>
+        <v>0.9731097961867192</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000233493', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000233493', 'ENSG00000188290', 'ENSG00000269893'}</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000179085', 'ENSG00000111678', 'ENSG00000236552', 'ENSG00000203875', 'ENSG00000204387', 'ENSG00000278771', 'ENSG00000272906'}</t>
+          <t>{'ENSG00000203875', 'ENSG00000236552', 'ENSG00000141933', 'ENSG00000278771', 'ENSG00000204387', 'ENSG00000272906', 'ENSG00000111678', 'ENSG00000179085'}</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'ENSG00000236977', 'ENSG00000161911', 'ENSG00000241772', 'ENSG00000211644', 'ENSG00000257246', 'ENSG00000270210', 'ENSG00000155428', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000270210', 'ENSG00000241772', 'ENSG00000155428', 'ENSG00000236977', 'ENSG00000173210', 'ENSG00000211644', 'ENSG00000257246'}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['TMEM238', 'HES4', 'SNHG8']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['SNHG5', 'RPL13AP5', 'TPGS1', 'Metazoa_SRP', 'C6orf48', 'RP11-533E19.7', 'C12orf57', 'DPM3']</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>['TREML1', 'RP11-373D23.3', 'AC092620.2', 'TRIM74', 'ANKRD44-IT1', 'ABLIM3', 'IGLV1-51', 'PHBP19']</t>
         </is>
       </c>
     </row>
@@ -754,24 +904,39 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8717948717948716</v>
+        <v>0.8717948717948714</v>
       </c>
       <c r="D11" t="n">
         <v>0.9714661406969095</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000233493', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000233493', 'ENSG00000188290', 'ENSG00000269893'}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'ENSG00000179085', 'ENSG00000236552', 'ENSG00000111678', 'ENSG00000203875', 'ENSG00000225864', 'ENSG00000204387', 'ENSG00000278771', 'ENSG00000272906', 'ENSG00000266538'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000278771', 'ENSG00000266538', 'ENSG00000204387', 'ENSG00000272906', 'ENSG00000111678', 'ENSG00000179085'}</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'ENSG00000236977', 'ENSG00000161911', 'ENSG00000241772', 'ENSG00000211644', 'ENSG00000243449', 'ENSG00000257246', 'ENSG00000270210', 'ENSG00000155428', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000270210', 'ENSG00000241772', 'ENSG00000155428', 'ENSG00000236977', 'ENSG00000243449', 'ENSG00000173210', 'ENSG00000211644', 'ENSG00000257246'}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['TMEM238', 'HES4', 'SNHG8']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'SNHG5', 'RPL13AP5', 'Metazoa_SRP', 'RP11-385D13.3', 'C6orf48', 'RP11-533E19.7', 'C12orf57', 'DPM3']</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>['TREML1', 'RP11-373D23.3', 'AC092620.2', 'TRIM74', 'ANKRD44-IT1', 'C4orf48', 'ABLIM3', 'IGLV1-51', 'PHBP19']</t>
         </is>
       </c>
     </row>
@@ -788,21 +953,36 @@
         <v>0.865384615384615</v>
       </c>
       <c r="D12" t="n">
-        <v>0.966140696909927</v>
+        <v>0.9661406969099274</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000233493', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000233493', 'ENSG00000188290', 'ENSG00000269893'}</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000179085', 'ENSG00000236552', 'ENSG00000111678', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000225864', 'ENSG00000204387', 'ENSG00000278771', 'ENSG00000272906'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000141933', 'ENSG00000152082', 'ENSG00000278771', 'ENSG00000204387', 'ENSG00000272906', 'ENSG00000111678', 'ENSG00000179085'}</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'ENSG00000236977', 'ENSG00000161911', 'ENSG00000241772', 'ENSG00000211644', 'ENSG00000167700', 'ENSG00000243449', 'ENSG00000257246', 'ENSG00000270210', 'ENSG00000155428', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000270210', 'ENSG00000167700', 'ENSG00000241772', 'ENSG00000155428', 'ENSG00000236977', 'ENSG00000243449', 'ENSG00000173210', 'ENSG00000211644', 'ENSG00000257246'}</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['TMEM238', 'HES4', 'SNHG8']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'SNHG5', 'RPL13AP5', 'TPGS1', 'MZT2B', 'Metazoa_SRP', 'C6orf48', 'RP11-533E19.7', 'C12orf57', 'DPM3']</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>['TREML1', 'RP11-373D23.3', 'MFSD3', 'AC092620.2', 'TRIM74', 'ANKRD44-IT1', 'C4orf48', 'ABLIM3', 'IGLV1-51', 'PHBP19']</t>
         </is>
       </c>
     </row>
@@ -816,24 +996,39 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8576923076923075</v>
+        <v>0.8576923076923073</v>
       </c>
       <c r="D13" t="n">
-        <v>0.962031558185404</v>
+        <v>0.9620315581854042</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000233493', 'ENSG00000269893', 'ENSG00000155428'}</t>
+          <t>{'ENSG00000155428', 'ENSG00000233493', 'ENSG00000188290', 'ENSG00000269893'}</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000179085', 'ENSG00000236552', 'ENSG00000111678', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000212123', 'ENSG00000204387', 'ENSG00000225864', 'ENSG00000272906'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000141933', 'ENSG00000272906', 'ENSG00000152082', 'ENSG00000204387', 'ENSG00000212123', 'ENSG00000111678', 'ENSG00000179085'}</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'ENSG00000236977', 'ENSG00000161911', 'ENSG00000143776', 'ENSG00000241772', 'ENSG00000211644', 'ENSG00000167700', 'ENSG00000243449', 'ENSG00000257246', 'ENSG00000270210', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000270210', 'ENSG00000167700', 'ENSG00000241772', 'ENSG00000236977', 'ENSG00000243449', 'ENSG00000143776', 'ENSG00000173210', 'ENSG00000211644', 'ENSG00000257246'}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['TRIM74', 'TMEM238', 'HES4', 'SNHG8']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'SNHG5', 'RPL13AP5', 'TPGS1', 'RP11-533E19.7', 'MZT2B', 'C6orf48', 'PRR22', 'C12orf57', 'DPM3']</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>['TREML1', 'RP11-373D23.3', 'MFSD3', 'AC092620.2', 'ANKRD44-IT1', 'C4orf48', 'CDC42BPA', 'ABLIM3', 'IGLV1-51', 'PHBP19']</t>
         </is>
       </c>
     </row>
@@ -847,24 +1042,39 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8538461538461535</v>
+        <v>0.8538461538461534</v>
       </c>
       <c r="D14" t="n">
-        <v>0.961735700197238</v>
+        <v>0.9617357001972385</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000233493', 'ENSG00000204387', 'ENSG00000269893', 'ENSG00000155428'}</t>
+          <t>{'ENSG00000269893', 'ENSG00000155428', 'ENSG00000204387', 'ENSG00000233493', 'ENSG00000188290'}</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000179085', 'ENSG00000237842', 'ENSG00000236552', 'ENSG00000111678', 'ENSG00000172803', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000278771', 'ENSG00000272906'}</t>
+          <t>{'ENSG00000203875', 'ENSG00000236552', 'ENSG00000141933', 'ENSG00000152082', 'ENSG00000172803', 'ENSG00000278771', 'ENSG00000272906', 'ENSG00000111678', 'ENSG00000179085', 'ENSG00000237842'}</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'ENSG00000236977', 'ENSG00000161911', 'ENSG00000143776', 'ENSG00000241772', 'ENSG00000211644', 'ENSG00000167700', 'ENSG00000243449', 'ENSG00000257246', 'ENSG00000270210', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000270210', 'ENSG00000167700', 'ENSG00000241772', 'ENSG00000236977', 'ENSG00000243449', 'ENSG00000143776', 'ENSG00000173210', 'ENSG00000211644', 'ENSG00000257246'}</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['SNHG8', 'TRIM74', 'C6orf48', 'TMEM238', 'HES4']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['SNHG5', 'RPL13AP5', 'TPGS1', 'MZT2B', 'SNX32', 'Metazoa_SRP', 'RP11-533E19.7', 'C12orf57', 'DPM3', 'RP11-110J1.2']</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>['TREML1', 'RP11-373D23.3', 'MFSD3', 'AC092620.2', 'ANKRD44-IT1', 'C4orf48', 'CDC42BPA', 'ABLIM3', 'IGLV1-51', 'PHBP19']</t>
         </is>
       </c>
     </row>
@@ -878,24 +1088,39 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9076923076923076</v>
+        <v>0.9076923076923074</v>
       </c>
       <c r="D15" t="n">
-        <v>0.980013149243918</v>
+        <v>0.9800131492439182</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000233493', 'ENSG00000203875', 'ENSG00000204387', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000203875', 'ENSG00000269893', 'ENSG00000204387', 'ENSG00000233493', 'ENSG00000188290'}</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000179085', 'ENSG00000111678', 'ENSG00000172803', 'ENSG00000212123', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000225864', 'ENSG00000278771', 'ENSG00000272906', 'ENSG00000266538'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000141933', 'ENSG00000272906', 'ENSG00000152082', 'ENSG00000172803', 'ENSG00000266538', 'ENSG00000171858', 'ENSG00000278771', 'ENSG00000212123', 'ENSG00000111678', 'ENSG00000179085'}</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'ENSG00000236977', 'ENSG00000161911', 'ENSG00000143776', 'ENSG00000241772', 'ENSG00000211644', 'ENSG00000167700', 'ENSG00000243449', 'ENSG00000257246', 'ENSG00000270210', 'ENSG00000155428', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000270210', 'ENSG00000167700', 'ENSG00000241772', 'ENSG00000155428', 'ENSG00000236977', 'ENSG00000243449', 'ENSG00000143776', 'ENSG00000173210', 'ENSG00000211644', 'ENSG00000257246'}</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['SNHG5', 'SNHG8', 'C6orf48', 'TMEM238', 'HES4']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'TPGS1', 'RP11-533E19.7', 'MZT2B', 'SNX32', 'RP11-385D13.3', 'RPS21', 'Metazoa_SRP', 'PRR22', 'C12orf57', 'DPM3']</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>['TREML1', 'RP11-373D23.3', 'MFSD3', 'AC092620.2', 'TRIM74', 'ANKRD44-IT1', 'C4orf48', 'CDC42BPA', 'ABLIM3', 'IGLV1-51', 'PHBP19']</t>
         </is>
       </c>
     </row>
@@ -909,24 +1134,39 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.91025641025641</v>
+        <v>0.9102564102564099</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9771860618014465</v>
+        <v>0.9771860618014463</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000233493', 'ENSG00000203875', 'ENSG00000204387', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000203875', 'ENSG00000269893', 'ENSG00000204387', 'ENSG00000233493', 'ENSG00000188290'}</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000179085', 'ENSG00000236552', 'ENSG00000111678', 'ENSG00000172803', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000225864', 'ENSG00000278771', 'ENSG00000272906', 'ENSG00000266538', 'ENSG00000112667'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000141933', 'ENSG00000236552', 'ENSG00000152082', 'ENSG00000172803', 'ENSG00000266538', 'ENSG00000171858', 'ENSG00000278771', 'ENSG00000272906', 'ENSG00000111678', 'ENSG00000179085', 'ENSG00000112667'}</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'ENSG00000236977', 'ENSG00000161911', 'ENSG00000143776', 'ENSG00000273599', 'ENSG00000241772', 'ENSG00000211644', 'ENSG00000167700', 'ENSG00000243449', 'ENSG00000257246', 'ENSG00000270210', 'ENSG00000155428', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000270210', 'ENSG00000167700', 'ENSG00000241772', 'ENSG00000273599', 'ENSG00000155428', 'ENSG00000236977', 'ENSG00000243449', 'ENSG00000143776', 'ENSG00000173210', 'ENSG00000211644', 'ENSG00000257246'}</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['SNHG5', 'SNHG8', 'C6orf48', 'TMEM238', 'HES4']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'TPGS1', 'RPL13AP5', 'MZT2B', 'SNX32', 'RP11-385D13.3', 'RPS21', 'Metazoa_SRP', 'RP11-533E19.7', 'C12orf57', 'DPM3', 'DNPH1']</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>['TREML1', 'RP11-373D23.3', 'MFSD3', 'AC092620.2', 'RP11-59C5.3', 'TRIM74', 'ANKRD44-IT1', 'C4orf48', 'CDC42BPA', 'ABLIM3', 'IGLV1-51', 'PHBP19']</t>
         </is>
       </c>
     </row>
@@ -943,21 +1183,36 @@
         <v>0.91025641025641</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9779750164365545</v>
+        <v>0.9779750164365546</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000233493', 'ENSG00000203875', 'ENSG00000167700', 'ENSG00000204387', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000203875', 'ENSG00000167700', 'ENSG00000269893', 'ENSG00000204387', 'ENSG00000233493', 'ENSG00000188290'}</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000179085', 'ENSG00000237842', 'ENSG00000236552', 'ENSG00000111678', 'ENSG00000172803', 'ENSG00000225178', 'ENSG00000152082', 'ENSG00000225864', 'ENSG00000258429', 'ENSG00000278771', 'ENSG00000272906'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000141933', 'ENSG00000236552', 'ENSG00000152082', 'ENSG00000172803', 'ENSG00000278771', 'ENSG00000225178', 'ENSG00000272906', 'ENSG00000111678', 'ENSG00000179085', 'ENSG00000258429', 'ENSG00000237842'}</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'ENSG00000236977', 'ENSG00000161911', 'ENSG00000143776', 'ENSG00000273599', 'ENSG00000241772', 'ENSG00000211644', 'ENSG00000243449', 'ENSG00000257246', 'ENSG00000270210', 'ENSG00000155428', 'ENSG00000167476', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000167476', 'ENSG00000270210', 'ENSG00000241772', 'ENSG00000273599', 'ENSG00000155428', 'ENSG00000236977', 'ENSG00000243449', 'ENSG00000143776', 'ENSG00000173210', 'ENSG00000211644', 'ENSG00000257246'}</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>['SNHG5', 'MFSD3', 'SNHG8', 'C6orf48', 'TMEM238', 'HES4']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'TPGS1', 'RPL13AP5', 'MZT2B', 'SNX32', 'Metazoa_SRP', 'RPSAP58', 'RP11-533E19.7', 'C12orf57', 'DPM3', 'PDF', 'RP11-110J1.2']</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>['TREML1', 'JSRP1', 'RP11-373D23.3', 'AC092620.2', 'RP11-59C5.3', 'TRIM74', 'ANKRD44-IT1', 'C4orf48', 'CDC42BPA', 'ABLIM3', 'IGLV1-51', 'PHBP19']</t>
         </is>
       </c>
     </row>
@@ -974,21 +1229,36 @@
         <v>0.9038461538461535</v>
       </c>
       <c r="D18" t="n">
-        <v>0.973044049967127</v>
+        <v>0.9730440499671269</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000141933', 'ENSG00000233493', 'ENSG00000203875', 'ENSG00000167700', 'ENSG00000204387', 'ENSG00000269893', 'ENSG00000155428'}</t>
+          <t>{'ENSG00000203875', 'ENSG00000141933', 'ENSG00000167700', 'ENSG00000269893', 'ENSG00000155428', 'ENSG00000204387', 'ENSG00000233493', 'ENSG00000188290'}</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>{'ENSG00000184986', 'ENSG00000179085', 'ENSG00000111678', 'ENSG00000236552', 'ENSG00000172803', 'ENSG00000278771', 'ENSG00000212123', 'ENSG00000171858', 'ENSG00000258429', 'ENSG00000225864', 'ENSG00000272906'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000236552', 'ENSG00000172803', 'ENSG00000278771', 'ENSG00000171858', 'ENSG00000212123', 'ENSG00000111678', 'ENSG00000272906', 'ENSG00000184986', 'ENSG00000179085', 'ENSG00000258429'}</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'ENSG00000236977', 'ENSG00000143776', 'ENSG00000273599', 'ENSG00000241772', 'ENSG00000211644', 'ENSG00000243449', 'ENSG00000270210', 'ENSG00000257246', 'ENSG00000161911', 'ENSG00000167476', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000167476', 'ENSG00000270210', 'ENSG00000241772', 'ENSG00000273599', 'ENSG00000236977', 'ENSG00000243449', 'ENSG00000143776', 'ENSG00000173210', 'ENSG00000211644', 'ENSG00000257246'}</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['SNHG5', 'TPGS1', 'MFSD3', 'SNHG8', 'TRIM74', 'C6orf48', 'TMEM238', 'HES4']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'RPL13AP5', 'SNX32', 'Metazoa_SRP', 'RPS21', 'PRR22', 'C12orf57', 'RP11-533E19.7', 'TMEM121', 'DPM3', 'PDF']</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>['TREML1', 'JSRP1', 'RP11-373D23.3', 'AC092620.2', 'RP11-59C5.3', 'ANKRD44-IT1', 'C4orf48', 'CDC42BPA', 'ABLIM3', 'IGLV1-51', 'PHBP19']</t>
         </is>
       </c>
     </row>
@@ -1002,24 +1272,39 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.9089743589743585</v>
+        <v>0.9089743589743586</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9785667324128865</v>
+        <v>0.9785667324128862</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000141933', 'ENSG00000236552', 'ENSG00000273599', 'ENSG00000233493', 'ENSG00000203875', 'ENSG00000167700', 'ENSG00000204387', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000203875', 'ENSG00000141933', 'ENSG00000167700', 'ENSG00000236552', 'ENSG00000273599', 'ENSG00000269893', 'ENSG00000204387', 'ENSG00000233493', 'ENSG00000188290'}</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>{'ENSG00000179085', 'ENSG00000237842', 'ENSG00000111678', 'ENSG00000172803', 'ENSG00000278771', 'ENSG00000212123', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000225864', 'ENSG00000272906', 'ENSG00000266538'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000152082', 'ENSG00000278771', 'ENSG00000266538', 'ENSG00000172803', 'ENSG00000171858', 'ENSG00000212123', 'ENSG00000272906', 'ENSG00000111678', 'ENSG00000179085', 'ENSG00000237842'}</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'ENSG00000236977', 'ENSG00000143776', 'ENSG00000241772', 'ENSG00000211644', 'ENSG00000243449', 'ENSG00000270210', 'ENSG00000257246', 'ENSG00000161911', 'ENSG00000155428', 'ENSG00000167476', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000167476', 'ENSG00000270210', 'ENSG00000241772', 'ENSG00000155428', 'ENSG00000236977', 'ENSG00000243449', 'ENSG00000143776', 'ENSG00000173210', 'ENSG00000211644', 'ENSG00000257246'}</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['SNHG5', 'TPGS1', 'MFSD3', 'RPL13AP5', 'RP11-59C5.3', 'SNHG8', 'C6orf48', 'TMEM238', 'HES4']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'MZT2B', 'Metazoa_SRP', 'RP11-385D13.3', 'SNX32', 'RPS21', 'PRR22', 'RP11-533E19.7', 'C12orf57', 'DPM3', 'RP11-110J1.2']</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>['TREML1', 'JSRP1', 'RP11-373D23.3', 'AC092620.2', 'TRIM74', 'ANKRD44-IT1', 'C4orf48', 'CDC42BPA', 'ABLIM3', 'IGLV1-51', 'PHBP19']</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1318,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.8192307692307685</v>
+        <v>0.8192307692307689</v>
       </c>
       <c r="D20" t="n">
         <v>0.8995069033530569</v>
@@ -1051,6 +1336,21 @@
       <c r="G20" t="inlineStr">
         <is>
           <t>set()</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'RPS21', 'RPL13AP5']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1064,14 +1364,14 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.8397435897435895</v>
+        <v>0.8397435897435896</v>
       </c>
       <c r="D21" t="n">
-        <v>0.92577251808021</v>
+        <v>0.9257725180802102</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>{'ENSG00000213442', 'ENSG00000203875', 'ENSG00000171858', 'ENSG00000236552'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000171858', 'ENSG00000236552', 'ENSG00000203875'}</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1082,6 +1382,21 @@
       <c r="G21" t="inlineStr">
         <is>
           <t>set()</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'RPS21', 'RPL13AP5', 'SNHG5']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1098,11 +1413,11 @@
         <v>0.8243589743589741</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9105522682445759</v>
+        <v>0.9105522682445757</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>{'ENSG00000111678', 'ENSG00000236552', 'ENSG00000203875', 'ENSG00000171858', 'ENSG00000213442'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000171858', 'ENSG00000111678'}</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1113,6 +1428,21 @@
       <c r="G22" t="inlineStr">
         <is>
           <t>set()</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'SNHG5', 'RPL13AP5', 'RPS21', 'C12orf57']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1126,14 +1456,14 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.8358974358974356</v>
+        <v>0.8358974358974358</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9095003287310974</v>
+        <v>0.9095003287310977</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>{'ENSG00000236552', 'ENSG00000111678', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000213442'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000111678'}</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1144,6 +1474,21 @@
       <c r="G23" t="inlineStr">
         <is>
           <t>set()</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'SNHG5', 'RPL13AP5', 'MZT2B', 'RPS21', 'C12orf57']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1157,14 +1502,14 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.8141025641025641</v>
+        <v>0.8141025641025639</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9140696909927679</v>
+        <v>0.9140696909927677</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>{'ENSG00000236552', 'ENSG00000111678', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000198804', 'ENSG00000213442'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000111678', 'ENSG00000198804'}</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1175,6 +1520,21 @@
       <c r="G24" t="inlineStr">
         <is>
           <t>set()</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'SNHG5', 'RPL13AP5', 'MZT2B', 'RPS21', 'C12orf57', 'MT-CO1']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1188,14 +1548,14 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.8397435897435895</v>
+        <v>0.8397435897435894</v>
       </c>
       <c r="D25" t="n">
         <v>0.9078566732412885</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000236552', 'ENSG00000111678', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000198804', 'ENSG00000213442'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000215030', 'ENSG00000111678', 'ENSG00000198804'}</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1206,6 +1566,21 @@
       <c r="G25" t="inlineStr">
         <is>
           <t>set()</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'SNHG5', 'RPL13AP5', 'MZT2B', 'RPS21', 'RPL13P12', 'C12orf57', 'MT-CO1']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1219,14 +1594,14 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.828205128205128</v>
+        <v>0.8282051282051279</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9304404996712685</v>
+        <v>0.9304404996712686</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000236552', 'ENSG00000111678', 'ENSG00000225178', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000198804', 'ENSG00000213442'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000215030', 'ENSG00000225178', 'ENSG00000111678', 'ENSG00000198804'}</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1237,6 +1612,21 @@
       <c r="G26" t="inlineStr">
         <is>
           <t>set()</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'SNHG5', 'RPL13AP5', 'MZT2B', 'RPS21', 'RPL13P12', 'RPSAP58', 'C12orf57', 'MT-CO1']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1250,14 +1640,14 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.812820512820513</v>
+        <v>0.8128205128205126</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9122287968441816</v>
+        <v>0.9122287968441813</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000236552', 'ENSG00000111678', 'ENSG00000225178', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000175602', 'ENSG00000198804', 'ENSG00000213442'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000215030', 'ENSG00000225178', 'ENSG00000111678', 'ENSG00000198804', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1268,6 +1658,21 @@
       <c r="G27" t="inlineStr">
         <is>
           <t>set()</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'SNHG5', 'RPL13AP5', 'MZT2B', 'RPS21', 'RPL13P12', 'RPSAP58', 'C12orf57', 'MT-CO1', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1281,14 +1686,14 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.815384615384615</v>
+        <v>0.8153846153846152</v>
       </c>
       <c r="D28" t="n">
         <v>0.924161735700197</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000236552', 'ENSG00000111678', 'ENSG00000225178', 'ENSG00000161179', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000175602', 'ENSG00000198804', 'ENSG00000213442'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000161179', 'ENSG00000215030', 'ENSG00000225178', 'ENSG00000111678', 'ENSG00000198804', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1299,6 +1704,21 @@
       <c r="G28" t="inlineStr">
         <is>
           <t>set()</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'SNHG5', 'RPL13AP5', 'MZT2B', 'RPS21', 'YDJC', 'RPL13P12', 'RPSAP58', 'C12orf57', 'MT-CO1', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1312,14 +1732,14 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8307692307692305</v>
+        <v>0.8307692307692307</v>
       </c>
       <c r="D29" t="n">
         <v>0.9101906640368176</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000179085', 'ENSG00000236552', 'ENSG00000111678', 'ENSG00000225178', 'ENSG00000161179', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000175602', 'ENSG00000198804', 'ENSG00000213442'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000161179', 'ENSG00000215030', 'ENSG00000225178', 'ENSG00000111678', 'ENSG00000179085', 'ENSG00000198804', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1330,6 +1750,21 @@
       <c r="G29" t="inlineStr">
         <is>
           <t>set()</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'SNHG5', 'RPL13AP5', 'MZT2B', 'RPS21', 'YDJC', 'RPL13P12', 'RPSAP58', 'C12orf57', 'DPM3', 'MT-CO1', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1343,14 +1778,14 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.8538461538461535</v>
+        <v>0.8538461538461536</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9459566074950689</v>
+        <v>0.9459566074950688</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000179085', 'ENSG00000236552', 'ENSG00000111678', 'ENSG00000225178', 'ENSG00000161179', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000175602', 'ENSG00000198804', 'ENSG00000204387', 'ENSG00000213442'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000161179', 'ENSG00000215030', 'ENSG00000204387', 'ENSG00000225178', 'ENSG00000111678', 'ENSG00000179085', 'ENSG00000198804', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1361,6 +1796,21 @@
       <c r="G30" t="inlineStr">
         <is>
           <t>set()</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'SNHG5', 'RPL13AP5', 'MZT2B', 'RPS21', 'YDJC', 'RPL13P12', 'C6orf48', 'RPSAP58', 'C12orf57', 'DPM3', 'MT-CO1', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1377,11 +1827,11 @@
         <v>0.842307692307692</v>
       </c>
       <c r="D31" t="n">
-        <v>0.940828402366864</v>
+        <v>0.9408284023668638</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000179085', 'ENSG00000236552', 'ENSG00000111678', 'ENSG00000225178', 'ENSG00000161179', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000175602', 'ENSG00000198804', 'ENSG00000204387', 'ENSG00000213442', 'ENSG00000103254'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000103254', 'ENSG00000161179', 'ENSG00000215030', 'ENSG00000204387', 'ENSG00000225178', 'ENSG00000111678', 'ENSG00000179085', 'ENSG00000198804', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1392,6 +1842,21 @@
       <c r="G31" t="inlineStr">
         <is>
           <t>set()</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'SNHG5', 'RPL13AP5', 'MZT2B', 'RPS21', 'FAM173A', 'YDJC', 'RPL13P12', 'C6orf48', 'RPSAP58', 'C12orf57', 'DPM3', 'MT-CO1', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1408,11 +1873,11 @@
         <v>0.8435897435897435</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9322813938198555</v>
+        <v>0.9322813938198551</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000215030', 'ENSG00000179085', 'ENSG00000236552', 'ENSG00000111678', 'ENSG00000225178', 'ENSG00000161179', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000175602', 'ENSG00000198804', 'ENSG00000204387', 'ENSG00000213442', 'ENSG00000103254'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000203875', 'ENSG00000141933', 'ENSG00000236552', 'ENSG00000152082', 'ENSG00000103254', 'ENSG00000161179', 'ENSG00000171858', 'ENSG00000215030', 'ENSG00000204387', 'ENSG00000225178', 'ENSG00000111678', 'ENSG00000179085', 'ENSG00000198804', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1423,6 +1888,21 @@
       <c r="G32" t="inlineStr">
         <is>
           <t>set()</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'SNHG5', 'TPGS1', 'RPL13AP5', 'MZT2B', 'FAM173A', 'YDJC', 'RPS21', 'RPL13P12', 'C6orf48', 'RPSAP58', 'C12orf57', 'DPM3', 'MT-CO1', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1436,14 +1916,14 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.8538461538461535</v>
+        <v>0.8538461538461537</v>
       </c>
       <c r="D33" t="n">
-        <v>0.939316239316239</v>
+        <v>0.9393162393162391</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000215030', 'ENSG00000179085', 'ENSG00000236552', 'ENSG00000111678', 'ENSG00000225178', 'ENSG00000161179', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000175602', 'ENSG00000198804', 'ENSG00000204387', 'ENSG00000213442', 'ENSG00000103254', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000203875', 'ENSG00000141933', 'ENSG00000236552', 'ENSG00000152082', 'ENSG00000103254', 'ENSG00000161179', 'ENSG00000171858', 'ENSG00000215030', 'ENSG00000269893', 'ENSG00000204387', 'ENSG00000225178', 'ENSG00000111678', 'ENSG00000179085', 'ENSG00000198804', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1454,6 +1934,21 @@
       <c r="G33" t="inlineStr">
         <is>
           <t>set()</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'SNHG5', 'TPGS1', 'RPL13AP5', 'MZT2B', 'FAM173A', 'YDJC', 'RPS21', 'RPL13P12', 'SNHG8', 'C6orf48', 'RPSAP58', 'C12orf57', 'DPM3', 'MT-CO1', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1467,14 +1962,14 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.851282051282051</v>
+        <v>0.8512820512820511</v>
       </c>
       <c r="D34" t="n">
         <v>0.9381328073635764</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000215030', 'ENSG00000179085', 'ENSG00000236552', 'ENSG00000111678', 'ENSG00000225178', 'ENSG00000161179', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000175602', 'ENSG00000198804', 'ENSG00000204387', 'ENSG00000213442', 'ENSG00000103254', 'ENSG00000130748', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000203875', 'ENSG00000141933', 'ENSG00000236552', 'ENSG00000130748', 'ENSG00000152082', 'ENSG00000103254', 'ENSG00000161179', 'ENSG00000171858', 'ENSG00000215030', 'ENSG00000269893', 'ENSG00000204387', 'ENSG00000225178', 'ENSG00000111678', 'ENSG00000179085', 'ENSG00000198804', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1485,6 +1980,21 @@
       <c r="G34" t="inlineStr">
         <is>
           <t>set()</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'SNHG5', 'TPGS1', 'RPL13AP5', 'TMEM160', 'MZT2B', 'FAM173A', 'YDJC', 'RPS21', 'RPL13P12', 'SNHG8', 'C6orf48', 'RPSAP58', 'C12orf57', 'DPM3', 'MT-CO1', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1498,14 +2008,14 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.8679487179487175</v>
+        <v>0.867948717948718</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9457593688362915</v>
+        <v>0.9457593688362917</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000215030', 'ENSG00000179085', 'ENSG00000236552', 'ENSG00000111678', 'ENSG00000225178', 'ENSG00000161179', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000175602', 'ENSG00000198804', 'ENSG00000204387', 'ENSG00000213442', 'ENSG00000103254', 'ENSG00000130748', 'ENSG00000269893', 'ENSG00000112667'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000203875', 'ENSG00000141933', 'ENSG00000236552', 'ENSG00000130748', 'ENSG00000152082', 'ENSG00000103254', 'ENSG00000161179', 'ENSG00000171858', 'ENSG00000215030', 'ENSG00000269893', 'ENSG00000204387', 'ENSG00000225178', 'ENSG00000111678', 'ENSG00000179085', 'ENSG00000112667', 'ENSG00000198804', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1516,6 +2026,21 @@
       <c r="G35" t="inlineStr">
         <is>
           <t>set()</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'SNHG5', 'TPGS1', 'RPL13AP5', 'TMEM160', 'MZT2B', 'FAM173A', 'YDJC', 'RPS21', 'RPL13P12', 'SNHG8', 'C6orf48', 'RPSAP58', 'C12orf57', 'DPM3', 'DNPH1', 'MT-CO1', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1529,14 +2054,14 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.858974358974359</v>
+        <v>0.8589743589743588</v>
       </c>
       <c r="D36" t="n">
         <v>0.9414201183431949</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000215030', 'ENSG00000179085', 'ENSG00000111678', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000204387', 'ENSG00000236552', 'ENSG00000225178', 'ENSG00000171858', 'ENSG00000112667', 'ENSG00000141933', 'ENSG00000161179', 'ENSG00000175602', 'ENSG00000198804', 'ENSG00000213442', 'ENSG00000103254', 'ENSG00000130748', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000215030', 'ENSG00000175602', 'ENSG00000152082', 'ENSG00000225178', 'ENSG00000111678', 'ENSG00000112667', 'ENSG00000141933', 'ENSG00000204387', 'ENSG00000188290', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000130748', 'ENSG00000103254', 'ENSG00000161179', 'ENSG00000171858', 'ENSG00000269893', 'ENSG00000198804', 'ENSG00000179085'}</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1547,6 +2072,21 @@
       <c r="G36" t="inlineStr">
         <is>
           <t>set()</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'RPL13P12', 'CCDC85B', 'MZT2B', 'RPSAP58', 'C12orf57', 'DNPH1', 'TPGS1', 'C6orf48', 'HES4', 'SNHG5', 'RPL13AP5', 'TMEM160', 'FAM173A', 'YDJC', 'RPS21', 'SNHG8', 'MT-CO1', 'DPM3']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1560,14 +2100,14 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.8500000000000001</v>
+        <v>0.8499999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9400394477317551</v>
+        <v>0.9400394477317553</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000215030', 'ENSG00000179085', 'ENSG00000111678', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000204387', 'ENSG00000236552', 'ENSG00000225178', 'ENSG00000171858', 'ENSG00000112667', 'ENSG00000141933', 'ENSG00000198727', 'ENSG00000161179', 'ENSG00000175602', 'ENSG00000198804', 'ENSG00000213442', 'ENSG00000103254', 'ENSG00000130748', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000215030', 'ENSG00000175602', 'ENSG00000152082', 'ENSG00000225178', 'ENSG00000111678', 'ENSG00000112667', 'ENSG00000141933', 'ENSG00000204387', 'ENSG00000198727', 'ENSG00000188290', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000130748', 'ENSG00000103254', 'ENSG00000161179', 'ENSG00000171858', 'ENSG00000269893', 'ENSG00000198804', 'ENSG00000179085'}</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1578,6 +2118,21 @@
       <c r="G37" t="inlineStr">
         <is>
           <t>set()</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'RPL13P12', 'CCDC85B', 'MZT2B', 'RPSAP58', 'C12orf57', 'DNPH1', 'TPGS1', 'C6orf48', 'MT-CYB', 'HES4', 'SNHG5', 'RPL13AP5', 'TMEM160', 'FAM173A', 'YDJC', 'RPS21', 'SNHG8', 'MT-CO1', 'DPM3']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1591,10 +2146,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.8705128205128201</v>
+        <v>0.8576923076923073</v>
       </c>
       <c r="D38" t="n">
-        <v>0.948257725180802</v>
+        <v>0.9323471400394475</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1603,12 +2158,27 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>{'ENSG00000203875', 'ENSG00000179085'}</t>
+          <t>{'ENSG00000111678', 'ENSG00000179085'}</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
           <t>{'ENSG00000155428', 'ENSG00000166963'}</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>['C6orf48']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['C12orf57', 'DPM3']</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>['TRIM74', 'MAP1A']</t>
         </is>
       </c>
     </row>
@@ -1622,10 +2192,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.852564102564102</v>
+        <v>0.8564102564102559</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9534516765285994</v>
+        <v>0.9448060486522023</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1634,12 +2204,27 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>{'ENSG00000203875', 'ENSG00000179085', 'ENSG00000111678'}</t>
+          <t>{'ENSG00000111678', 'ENSG00000179085', 'ENSG00000233493'}</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>{'ENSG00000166963', 'ENSG00000155428', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000155428', 'ENSG00000166963', 'ENSG00000173210'}</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>['C6orf48']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['C12orf57', 'DPM3', 'TMEM238']</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>['TRIM74', 'MAP1A', 'ABLIM3']</t>
         </is>
       </c>
     </row>
@@ -1653,10 +2238,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.8717948717948716</v>
+        <v>0.8615384615384611</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9501643655489805</v>
+        <v>0.9390203813280733</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1665,12 +2250,27 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>{'ENSG00000203875', 'ENSG00000179085', 'ENSG00000167700', 'ENSG00000111678'}</t>
+          <t>{'ENSG00000111678', 'ENSG00000233493', 'ENSG00000179085', 'ENSG00000141933'}</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000173210', 'ENSG00000155428', 'ENSG00000166963'}</t>
+          <t>{'ENSG00000155428', 'ENSG00000166963', 'ENSG00000188290', 'ENSG00000173210'}</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>['C6orf48']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['C12orf57', 'TMEM238', 'DPM3', 'TPGS1']</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>['TRIM74', 'MAP1A', 'HES4', 'ABLIM3']</t>
         </is>
       </c>
     </row>
@@ -1684,10 +2284,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.905128205128205</v>
+        <v>0.8961538461538459</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9631492439184746</v>
+        <v>0.9522682445759367</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1696,12 +2296,27 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000179085', 'ENSG00000111678', 'ENSG00000233493', 'ENSG00000203875'}</t>
+          <t>{'ENSG00000152082', 'ENSG00000171858', 'ENSG00000233493', 'ENSG00000111678', 'ENSG00000179085'}</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000166963', 'ENSG00000161911', 'ENSG00000155428', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000166963', 'ENSG00000155428', 'ENSG00000173210', 'ENSG00000188290'}</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>['C6orf48']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['MZT2B', 'RPS21', 'TMEM238', 'C12orf57', 'DPM3']</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>['TREML1', 'MAP1A', 'TRIM74', 'ABLIM3', 'HES4']</t>
         </is>
       </c>
     </row>
@@ -1715,24 +2330,39 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.8948717948717946</v>
+        <v>0.8743589743589741</v>
       </c>
       <c r="D42" t="n">
-        <v>0.952596975673899</v>
+        <v>0.9423405654174883</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000204387'}</t>
+          <t>{'ENSG00000204387', 'ENSG00000188290'}</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>{'ENSG00000179085', 'ENSG00000111678', 'ENSG00000233493', 'ENSG00000203875', 'ENSG00000152082'}</t>
+          <t>{'ENSG00000141933', 'ENSG00000171858', 'ENSG00000233493', 'ENSG00000111678', 'ENSG00000179085'}</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>{'ENSG00000166963', 'ENSG00000211644', 'ENSG00000161911', 'ENSG00000155428', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000166963', 'ENSG00000155428', 'ENSG00000173210', 'ENSG00000211644'}</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>['C6orf48', 'HES4']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['TPGS1', 'RPS21', 'TMEM238', 'C12orf57', 'DPM3']</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>['TREML1', 'MAP1A', 'TRIM74', 'ABLIM3', 'IGLV1-51']</t>
         </is>
       </c>
     </row>
@@ -1746,10 +2376,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.8666666666666665</v>
+        <v>0.8705128205128201</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9579224194608804</v>
+        <v>0.9481262327416172</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1758,12 +2388,27 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000179085', 'ENSG00000111678', 'ENSG00000233493', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858'}</t>
+          <t>{'ENSG00000141933', 'ENSG00000152082', 'ENSG00000172803', 'ENSG00000171858', 'ENSG00000233493', 'ENSG00000111678', 'ENSG00000179085'}</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000198478', 'ENSG00000166963', 'ENSG00000211644', 'ENSG00000161911', 'ENSG00000155428', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000166963', 'ENSG00000155428', 'ENSG00000198478', 'ENSG00000173210', 'ENSG00000211644', 'ENSG00000188290'}</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>['C6orf48']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['TPGS1', 'MZT2B', 'SNX32', 'RPS21', 'TMEM238', 'C12orf57', 'DPM3']</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>['TREML1', 'MAP1A', 'TRIM74', 'SH3BGRL2', 'ABLIM3', 'IGLV1-51', 'HES4']</t>
         </is>
       </c>
     </row>
@@ -1777,24 +2422,39 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.905128205128205</v>
+        <v>0.9038461538461535</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9765285996055225</v>
+        <v>0.9624589086127546</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>{'ENSG00000203875', 'ENSG00000204387'}</t>
+          <t>{'ENSG00000204387'}</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000184986', 'ENSG00000179085', 'ENSG00000111678', 'ENSG00000233493', 'ENSG00000152082', 'ENSG00000171858'}</t>
+          <t>{'ENSG00000141933', 'ENSG00000152082', 'ENSG00000172803', 'ENSG00000171858', 'ENSG00000233493', 'ENSG00000212123', 'ENSG00000111678', 'ENSG00000179085'}</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000198478', 'ENSG00000166963', 'ENSG00000211644', 'ENSG00000161911', 'ENSG00000155428', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000166963', 'ENSG00000203875', 'ENSG00000155428', 'ENSG00000198478', 'ENSG00000173210', 'ENSG00000211644', 'ENSG00000188290'}</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>['C6orf48']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['TPGS1', 'MZT2B', 'SNX32', 'RPS21', 'TMEM238', 'PRR22', 'C12orf57', 'DPM3']</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>['TREML1', 'MAP1A', 'SNHG5', 'TRIM74', 'SH3BGRL2', 'ABLIM3', 'IGLV1-51', 'HES4']</t>
         </is>
       </c>
     </row>
@@ -1808,24 +2468,39 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.8961538461538455</v>
+        <v>0.8820512820512819</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9721236028928335</v>
+        <v>0.9610453648915185</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>{'ENSG00000203875', 'ENSG00000204387'}</t>
+          <t>{'ENSG00000204387', 'ENSG00000188290'}</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000179085', 'ENSG00000111678', 'ENSG00000233493', 'ENSG00000172803', 'ENSG00000212123', 'ENSG00000152082', 'ENSG00000167700'}</t>
+          <t>{'ENSG00000141933', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000233493', 'ENSG00000212123', 'ENSG00000111678', 'ENSG00000179085', 'ENSG00000258429'}</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000161911', 'ENSG00000166963', 'ENSG00000172780', 'ENSG00000211644', 'ENSG00000198478', 'ENSG00000155428', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000166963', 'ENSG00000203875', 'ENSG00000172780', 'ENSG00000155428', 'ENSG00000198478', 'ENSG00000173210', 'ENSG00000211644'}</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>['C6orf48', 'HES4']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['TPGS1', 'MZT2B', 'RPS21', 'TMEM238', 'PRR22', 'C12orf57', 'DPM3', 'PDF']</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>['TREML1', 'MAP1A', 'SNHG5', 'RAB43', 'TRIM74', 'SH3BGRL2', 'ABLIM3', 'IGLV1-51']</t>
         </is>
       </c>
     </row>
@@ -1839,24 +2514,39 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.8987179487179485</v>
+        <v>0.8846153846153844</v>
       </c>
       <c r="D46" t="n">
-        <v>0.974030243261012</v>
+        <v>0.9632149901380669</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>{'ENSG00000203875', 'ENSG00000155428', 'ENSG00000204387'}</t>
+          <t>{'ENSG00000155428', 'ENSG00000204387', 'ENSG00000188290'}</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>{'ENSG00000179085', 'ENSG00000111678', 'ENSG00000233493', 'ENSG00000212123', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000167700', 'ENSG00000130748'}</t>
+          <t>{'ENSG00000141933', 'ENSG00000167700', 'ENSG00000152082', 'ENSG00000172803', 'ENSG00000171858', 'ENSG00000233493', 'ENSG00000111678', 'ENSG00000179085'}</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000136929', 'ENSG00000161911', 'ENSG00000166963', 'ENSG00000172780', 'ENSG00000211644', 'ENSG00000198478', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000166963', 'ENSG00000203875', 'ENSG00000172780', 'ENSG00000198478', 'ENSG00000136929', 'ENSG00000173210', 'ENSG00000211644'}</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>['TRIM74', 'C6orf48', 'HES4']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['TPGS1', 'MFSD3', 'MZT2B', 'SNX32', 'RPS21', 'TMEM238', 'C12orf57', 'DPM3']</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>['TREML1', 'MAP1A', 'SNHG5', 'RAB43', 'SH3BGRL2', 'HEMGN', 'ABLIM3', 'IGLV1-51']</t>
         </is>
       </c>
     </row>
@@ -1870,24 +2560,39 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.9166666666666665</v>
+        <v>0.9102564102564098</v>
       </c>
       <c r="D47" t="n">
-        <v>0.974326101249178</v>
+        <v>0.9655161078237999</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000111678', 'ENSG00000203875', 'ENSG00000204387', 'ENSG00000155428'}</t>
+          <t>{'ENSG00000111678', 'ENSG00000204387'}</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000179085', 'ENSG00000233493', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000258429', 'ENSG00000112667'}</t>
+          <t>{'ENSG00000141933', 'ENSG00000167700', 'ENSG00000152082', 'ENSG00000172803', 'ENSG00000171858', 'ENSG00000233493', 'ENSG00000212123', 'ENSG00000184986', 'ENSG00000179085', 'ENSG00000258429'}</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>{'ENSG00000161911', 'ENSG00000136929', 'ENSG00000172780', 'ENSG00000166963', 'ENSG00000211644', 'ENSG00000198478', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000166963', 'ENSG00000203875', 'ENSG00000172780', 'ENSG00000155428', 'ENSG00000198478', 'ENSG00000136929', 'ENSG00000173210', 'ENSG00000211644', 'ENSG00000188290'}</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>['C12orf57', 'C6orf48']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['TPGS1', 'MFSD3', 'MZT2B', 'SNX32', 'RPS21', 'TMEM238', 'PRR22', 'TMEM121', 'DPM3', 'PDF']</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>['TREML1', 'MAP1A', 'SNHG5', 'RAB43', 'TRIM74', 'SH3BGRL2', 'HEMGN', 'ABLIM3', 'IGLV1-51', 'HES4']</t>
         </is>
       </c>
     </row>
@@ -1901,24 +2606,39 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.915384615384615</v>
+        <v>0.9076923076923074</v>
       </c>
       <c r="D48" t="n">
-        <v>0.973109796186719</v>
+        <v>0.9637409598948059</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000111678', 'ENSG00000203875', 'ENSG00000204387', 'ENSG00000155428'}</t>
+          <t>{'ENSG00000111678', 'ENSG00000204387', 'ENSG00000188290'}</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000179085', 'ENSG00000233493', 'ENSG00000172803', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000167700', 'ENSG00000112667'}</t>
+          <t>{'ENSG00000141933', 'ENSG00000167700', 'ENSG00000152082', 'ENSG00000172803', 'ENSG00000171858', 'ENSG00000233493', 'ENSG00000184986', 'ENSG00000179085', 'ENSG00000112667', 'ENSG00000258429'}</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>{'ENSG00000161911', 'ENSG00000136929', 'ENSG00000172780', 'ENSG00000166963', 'ENSG00000211644', 'ENSG00000175602', 'ENSG00000198478', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000166963', 'ENSG00000203875', 'ENSG00000172780', 'ENSG00000155428', 'ENSG00000198478', 'ENSG00000136929', 'ENSG00000173210', 'ENSG00000211644', 'ENSG00000175602'}</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>['C12orf57', 'C6orf48', 'HES4']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['TPGS1', 'MFSD3', 'MZT2B', 'SNX32', 'RPS21', 'TMEM238', 'TMEM121', 'DPM3', 'DNPH1', 'PDF']</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>['TREML1', 'MAP1A', 'SNHG5', 'RAB43', 'TRIM74', 'SH3BGRL2', 'HEMGN', 'ABLIM3', 'IGLV1-51', 'CCDC85B']</t>
         </is>
       </c>
     </row>
@@ -1932,24 +2652,39 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.9243589743589745</v>
+        <v>0.9115384615384612</v>
       </c>
       <c r="D49" t="n">
-        <v>0.969296515450361</v>
+        <v>0.9586785009861931</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000188290', 'ENSG00000111678', 'ENSG00000203875', 'ENSG00000204387', 'ENSG00000155428'}</t>
+          <t>{'ENSG00000141933', 'ENSG00000155428', 'ENSG00000204387', 'ENSG00000111678', 'ENSG00000188290'}</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>{'ENSG00000184986', 'ENSG00000179085', 'ENSG00000233493', 'ENSG00000172803', 'ENSG00000212123', 'ENSG00000152082', 'ENSG00000167700', 'ENSG00000112667'}</t>
+          <t>{'ENSG00000167700', 'ENSG00000152082', 'ENSG00000172803', 'ENSG00000171858', 'ENSG00000233493', 'ENSG00000212123', 'ENSG00000179085', 'ENSG00000112667', 'ENSG00000258429'}</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>{'ENSG00000161911', 'ENSG00000136929', 'ENSG00000172780', 'ENSG00000166963', 'ENSG00000211644', 'ENSG00000175602', 'ENSG00000198478', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000166963', 'ENSG00000203875', 'ENSG00000172780', 'ENSG00000198478', 'ENSG00000136929', 'ENSG00000173210', 'ENSG00000211644', 'ENSG00000175602'}</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>['TPGS1', 'TRIM74', 'C6orf48', 'C12orf57', 'HES4']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['MFSD3', 'MZT2B', 'SNX32', 'RPS21', 'TMEM238', 'PRR22', 'DPM3', 'DNPH1', 'PDF']</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>['TREML1', 'MAP1A', 'SNHG5', 'RAB43', 'SH3BGRL2', 'HEMGN', 'ABLIM3', 'IGLV1-51', 'CCDC85B']</t>
         </is>
       </c>
     </row>
@@ -1963,24 +2698,39 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.911538461538461</v>
+        <v>0.8935897435897433</v>
       </c>
       <c r="D50" t="n">
-        <v>0.968836291913215</v>
+        <v>0.9559829059829057</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000188290', 'ENSG00000111678', 'ENSG00000203875', 'ENSG00000204387', 'ENSG00000155428'}</t>
+          <t>{'ENSG00000141933', 'ENSG00000204387', 'ENSG00000111678', 'ENSG00000188290', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>{'ENSG00000184986', 'ENSG00000179085', 'ENSG00000233493', 'ENSG00000172803', 'ENSG00000212123', 'ENSG00000171858', 'ENSG00000167700', 'ENSG00000258429', 'ENSG00000130748'}</t>
+          <t>{'ENSG00000167700', 'ENSG00000130748', 'ENSG00000152082', 'ENSG00000172803', 'ENSG00000171858', 'ENSG00000233493', 'ENSG00000212123', 'ENSG00000184986', 'ENSG00000179085', 'ENSG00000258429'}</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>{'ENSG00000161911', 'ENSG00000136929', 'ENSG00000172780', 'ENSG00000166963', 'ENSG00000211644', 'ENSG00000175602', 'ENSG00000073792', 'ENSG00000198478', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000166963', 'ENSG00000203875', 'ENSG00000172780', 'ENSG00000155428', 'ENSG00000198478', 'ENSG00000073792', 'ENSG00000136929', 'ENSG00000173210', 'ENSG00000211644'}</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>['TPGS1', 'C6orf48', 'C12orf57', 'HES4', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['MFSD3', 'TMEM160', 'MZT2B', 'SNX32', 'RPS21', 'TMEM238', 'PRR22', 'TMEM121', 'DPM3', 'PDF']</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>['TREML1', 'MAP1A', 'SNHG5', 'RAB43', 'TRIM74', 'SH3BGRL2', 'IGF2BP2', 'HEMGN', 'ABLIM3', 'IGLV1-51']</t>
         </is>
       </c>
     </row>
@@ -1994,24 +2744,39 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.921794871794871</v>
+        <v>0.9115384615384612</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9744247205785665</v>
+        <v>0.9659434582511504</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000188290', 'ENSG00000111678', 'ENSG00000203875', 'ENSG00000204387', 'ENSG00000155428'}</t>
+          <t>{'ENSG00000141933', 'ENSG00000155428', 'ENSG00000204387', 'ENSG00000111678', 'ENSG00000188290'}</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>{'ENSG00000184986', 'ENSG00000179085', 'ENSG00000233493', 'ENSG00000172803', 'ENSG00000212123', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000167700', 'ENSG00000258429', 'ENSG00000112667'}</t>
+          <t>{'ENSG00000167700', 'ENSG00000130748', 'ENSG00000152082', 'ENSG00000172803', 'ENSG00000171858', 'ENSG00000233493', 'ENSG00000212123', 'ENSG00000184986', 'ENSG00000179085', 'ENSG00000198804', 'ENSG00000258429'}</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>{'ENSG00000161911', 'ENSG00000136929', 'ENSG00000163736', 'ENSG00000172780', 'ENSG00000166963', 'ENSG00000211644', 'ENSG00000175602', 'ENSG00000073792', 'ENSG00000198478', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000166963', 'ENSG00000203875', 'ENSG00000172780', 'ENSG00000163736', 'ENSG00000198478', 'ENSG00000073792', 'ENSG00000136929', 'ENSG00000173210', 'ENSG00000211644', 'ENSG00000175602'}</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>['TPGS1', 'TRIM74', 'C6orf48', 'C12orf57', 'HES4']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['MFSD3', 'TMEM160', 'MZT2B', 'SNX32', 'RPS21', 'TMEM238', 'PRR22', 'TMEM121', 'DPM3', 'MT-CO1', 'PDF']</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>['TREML1', 'MAP1A', 'SNHG5', 'RAB43', 'PPBP', 'SH3BGRL2', 'IGF2BP2', 'HEMGN', 'ABLIM3', 'IGLV1-51', 'CCDC85B']</t>
         </is>
       </c>
     </row>
@@ -2025,24 +2790,39 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.921794871794871</v>
+        <v>0.9064102564102563</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9730440499671265</v>
+        <v>0.9625904010519393</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000188290', 'ENSG00000111678', 'ENSG00000203875', 'ENSG00000175602', 'ENSG00000204387', 'ENSG00000155428'}</t>
+          <t>{'ENSG00000141933', 'ENSG00000155428', 'ENSG00000204387', 'ENSG00000111678', 'ENSG00000188290'}</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>{'ENSG00000184986', 'ENSG00000179085', 'ENSG00000233493', 'ENSG00000172803', 'ENSG00000212123', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000167700', 'ENSG00000130748', 'ENSG00000112667'}</t>
+          <t>{'ENSG00000167700', 'ENSG00000130748', 'ENSG00000152082', 'ENSG00000172803', 'ENSG00000171858', 'ENSG00000212123', 'ENSG00000233493', 'ENSG00000143776', 'ENSG00000184986', 'ENSG00000179085', 'ENSG00000112667', 'ENSG00000258429'}</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>{'ENSG00000161911', 'ENSG00000136929', 'ENSG00000163736', 'ENSG00000172780', 'ENSG00000166963', 'ENSG00000211644', 'ENSG00000005249', 'ENSG00000073792', 'ENSG00000198478', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000166963', 'ENSG00000203875', 'ENSG00000172780', 'ENSG00000163736', 'ENSG00000198478', 'ENSG00000073792', 'ENSG00000136929', 'ENSG00000173210', 'ENSG00000005249', 'ENSG00000211644', 'ENSG00000175602'}</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>['TPGS1', 'TRIM74', 'C6orf48', 'C12orf57', 'HES4']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['MFSD3', 'TMEM160', 'MZT2B', 'SNX32', 'RPS21', 'PRR22', 'TMEM238', 'CDC42BPA', 'TMEM121', 'DPM3', 'DNPH1', 'PDF']</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>['TREML1', 'MAP1A', 'SNHG5', 'RAB43', 'PPBP', 'SH3BGRL2', 'IGF2BP2', 'HEMGN', 'ABLIM3', 'PRKAR2B', 'IGLV1-51', 'CCDC85B']</t>
         </is>
       </c>
     </row>
@@ -2056,24 +2836,39 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.9230769230769225</v>
+        <v>0.9153846153846149</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9717619986850755</v>
+        <v>0.9626561472715318</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000188290', 'ENSG00000111678', 'ENSG00000203875', 'ENSG00000204387', 'ENSG00000155428'}</t>
+          <t>{'ENSG00000141933', 'ENSG00000155428', 'ENSG00000204387', 'ENSG00000111678', 'ENSG00000188290'}</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>{'ENSG00000184986', 'ENSG00000179085', 'ENSG00000233493', 'ENSG00000172803', 'ENSG00000212123', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000167700', 'ENSG00000258429', 'ENSG00000198786', 'ENSG00000167476', 'ENSG00000112667'}</t>
+          <t>{'ENSG00000167700', 'ENSG00000205726', 'ENSG00000152082', 'ENSG00000103254', 'ENSG00000172803', 'ENSG00000171858', 'ENSG00000212123', 'ENSG00000233493', 'ENSG00000143776', 'ENSG00000184986', 'ENSG00000179085', 'ENSG00000112667', 'ENSG00000258429'}</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>{'ENSG00000161911', 'ENSG00000136929', 'ENSG00000163736', 'ENSG00000172780', 'ENSG00000166963', 'ENSG00000211644', 'ENSG00000175602', 'ENSG00000005249', 'ENSG00000073792', 'ENSG00000198478', 'ENSG00000175920', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000166963', 'ENSG00000203875', 'ENSG00000172780', 'ENSG00000163736', 'ENSG00000198478', 'ENSG00000073792', 'ENSG00000136929', 'ENSG00000175920', 'ENSG00000173210', 'ENSG00000005249', 'ENSG00000211644', 'ENSG00000175602'}</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>['TPGS1', 'TRIM74', 'C6orf48', 'C12orf57', 'HES4']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['MFSD3', 'ITSN1', 'MZT2B', 'FAM173A', 'SNX32', 'RPS21', 'PRR22', 'TMEM238', 'CDC42BPA', 'TMEM121', 'DPM3', 'DNPH1', 'PDF']</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>['TREML1', 'MAP1A', 'SNHG5', 'RAB43', 'PPBP', 'SH3BGRL2', 'IGF2BP2', 'HEMGN', 'DOK7', 'ABLIM3', 'PRKAR2B', 'IGLV1-51', 'CCDC85B']</t>
         </is>
       </c>
     </row>
@@ -2087,24 +2882,39 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.9205128205128206</v>
+        <v>0.9038461538461537</v>
       </c>
       <c r="D54" t="n">
-        <v>0.973800131492439</v>
+        <v>0.9608152531229452</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000141933', 'ENSG00000111678', 'ENSG00000203875', 'ENSG00000167700', 'ENSG00000175602', 'ENSG00000204387', 'ENSG00000155428'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000141933', 'ENSG00000167700', 'ENSG00000155428', 'ENSG00000204387', 'ENSG00000111678', 'ENSG00000188290', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>{'ENSG00000184986', 'ENSG00000179085', 'ENSG00000233493', 'ENSG00000172803', 'ENSG00000161179', 'ENSG00000212123', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000258429', 'ENSG00000103254', 'ENSG00000167476'}</t>
+          <t>{'ENSG00000130748', 'ENSG00000152082', 'ENSG00000172803', 'ENSG00000171858', 'ENSG00000233493', 'ENSG00000243449', 'ENSG00000212123', 'ENSG00000184986', 'ENSG00000179085', 'ENSG00000112667', 'ENSG00000258429'}</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>{'ENSG00000136929', 'ENSG00000163736', 'ENSG00000198478', 'ENSG00000172780', 'ENSG00000166963', 'ENSG00000211644', 'ENSG00000005249', 'ENSG00000073792', 'ENSG00000161911', 'ENSG00000175920', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000166963', 'ENSG00000203875', 'ENSG00000211644', 'ENSG00000172780', 'ENSG00000163736', 'ENSG00000198478', 'ENSG00000073792', 'ENSG00000175920', 'ENSG00000173210', 'ENSG00000005249', 'ENSG00000136929'}</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>['TREML1', 'TPGS1', 'MFSD3', 'TRIM74', 'C6orf48', 'C12orf57', 'HES4', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['TMEM160', 'MZT2B', 'SNX32', 'RPS21', 'TMEM238', 'C4orf48', 'PRR22', 'TMEM121', 'DPM3', 'DNPH1', 'PDF']</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>['MAP1A', 'SNHG5', 'IGLV1-51', 'RAB43', 'PPBP', 'SH3BGRL2', 'IGF2BP2', 'DOK7', 'ABLIM3', 'PRKAR2B', 'HEMGN']</t>
         </is>
       </c>
     </row>
@@ -2118,24 +2928,39 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.933333333333333</v>
+        <v>0.9179487179487178</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9769230769230766</v>
+        <v>0.965877712031558</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000141933', 'ENSG00000111678', 'ENSG00000203875', 'ENSG00000167700', 'ENSG00000204387', 'ENSG00000155428'}</t>
+          <t>{'ENSG00000141933', 'ENSG00000167700', 'ENSG00000155428', 'ENSG00000204387', 'ENSG00000111678', 'ENSG00000188290', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>{'ENSG00000184986', 'ENSG00000179085', 'ENSG00000143776', 'ENSG00000233493', 'ENSG00000172803', 'ENSG00000212123', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000258429', 'ENSG00000243449', 'ENSG00000103254', 'ENSG00000130748', 'ENSG00000112667'}</t>
+          <t>{'ENSG00000101162', 'ENSG00000130748', 'ENSG00000152082', 'ENSG00000172803', 'ENSG00000103254', 'ENSG00000171858', 'ENSG00000233493', 'ENSG00000212123', 'ENSG00000184986', 'ENSG00000179085', 'ENSG00000112667', 'ENSG00000198804', 'ENSG00000258429'}</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>{'ENSG00000136929', 'ENSG00000163736', 'ENSG00000113140', 'ENSG00000198478', 'ENSG00000172780', 'ENSG00000166963', 'ENSG00000211644', 'ENSG00000175602', 'ENSG00000005249', 'ENSG00000073792', 'ENSG00000161911', 'ENSG00000175920', 'ENSG00000173210'}</t>
+          <t>{'ENSG00000161911', 'ENSG00000166963', 'ENSG00000203875', 'ENSG00000211644', 'ENSG00000172780', 'ENSG00000163736', 'ENSG00000198478', 'ENSG00000073792', 'ENSG00000175920', 'ENSG00000173210', 'ENSG00000005249', 'ENSG00000136929', 'ENSG00000113140'}</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>['TPGS1', 'MFSD3', 'TRIM74', 'C6orf48', 'C12orf57', 'HES4', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['TUBB1', 'TMEM160', 'MZT2B', 'SNX32', 'FAM173A', 'RPS21', 'TMEM238', 'PRR22', 'TMEM121', 'DPM3', 'DNPH1', 'MT-CO1', 'PDF']</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>['TREML1', 'MAP1A', 'SNHG5', 'IGLV1-51', 'RAB43', 'PPBP', 'SH3BGRL2', 'IGF2BP2', 'DOK7', 'ABLIM3', 'PRKAR2B', 'HEMGN', 'SPARC']</t>
         </is>
       </c>
     </row>
@@ -2149,24 +2974,39 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.8256410256410256</v>
+        <v>0.8012820512820509</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9369165023011174</v>
+        <v>0.9196581196581195</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>{'ENSG00000203875', 'ENSG00000171858', 'ENSG00000111678'}</t>
+          <t>{'ENSG00000111678', 'ENSG00000171858'}</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000152082'}</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>['C12orf57', 'RPS21']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['MZT2B']</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
         </is>
       </c>
     </row>
@@ -2180,24 +3020,39 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.8397435897435895</v>
+        <v>0.8179487179487177</v>
       </c>
       <c r="D57" t="n">
-        <v>0.926791584483892</v>
+        <v>0.9126561472715318</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>{'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000111678'}</t>
+          <t>{'ENSG00000111678', 'ENSG00000171858', 'ENSG00000152082'}</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000198804'}</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>['C12orf57', 'RPS21', 'MZT2B']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['MT-CO1']</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
         </is>
       </c>
     </row>
@@ -2211,24 +3066,39 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.8269230769230765</v>
+        <v>0.796153846153846</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9350427350427351</v>
+        <v>0.9158448389217619</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>{'ENSG00000111678', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000198804'}</t>
+          <t>{'ENSG00000152082', 'ENSG00000171858', 'ENSG00000198804', 'ENSG00000111678'}</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>['MZT2B', 'RPS21', 'MT-CO1', 'C12orf57']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['CCDC85B']</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
         </is>
       </c>
     </row>
@@ -2242,24 +3112,39 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.8384615384615386</v>
+        <v>0.8051282051282049</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9326101249178169</v>
+        <v>0.909861932938856</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>{'ENSG00000111678', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000175602', 'ENSG00000198804'}</t>
+          <t>{'ENSG00000152082', 'ENSG00000171858', 'ENSG00000111678', 'ENSG00000198804', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000161179'}</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>['MZT2B', 'RPS21', 'C12orf57', 'MT-CO1', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['YDJC']</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
         </is>
       </c>
     </row>
@@ -2273,24 +3158,39 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.829487179487179</v>
+        <v>0.8294871794871792</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9379355687047994</v>
+        <v>0.9223537146614068</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>{'ENSG00000111678', 'ENSG00000161179', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000175602', 'ENSG00000198804'}</t>
+          <t>{'ENSG00000152082', 'ENSG00000171858', 'ENSG00000161179', 'ENSG00000111678', 'ENSG00000198804', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000179085'}</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>['MZT2B', 'RPS21', 'YDJC', 'C12orf57', 'MT-CO1', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['DPM3']</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
         </is>
       </c>
     </row>
@@ -2304,24 +3204,39 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.8346153846153841</v>
+        <v>0.8371794871794871</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9218277449046679</v>
+        <v>0.9168639053254436</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>{'ENSG00000179085', 'ENSG00000111678', 'ENSG00000161179', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000175602', 'ENSG00000198804'}</t>
+          <t>{'ENSG00000152082', 'ENSG00000171858', 'ENSG00000161179', 'ENSG00000111678', 'ENSG00000179085', 'ENSG00000198804', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000204387'}</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>['MZT2B', 'RPS21', 'YDJC', 'C12orf57', 'DPM3', 'MT-CO1', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['C6orf48']</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
         </is>
       </c>
     </row>
@@ -2335,24 +3250,39 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.8576923076923075</v>
+        <v>0.8576923076923073</v>
       </c>
       <c r="D62" t="n">
-        <v>0.946153846153846</v>
+        <v>0.93241288625904</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>{'ENSG00000179085', 'ENSG00000111678', 'ENSG00000161179', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000175602', 'ENSG00000198804', 'ENSG00000204387'}</t>
+          <t>{'ENSG00000152082', 'ENSG00000171858', 'ENSG00000161179', 'ENSG00000204387', 'ENSG00000111678', 'ENSG00000179085', 'ENSG00000198804', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000103254'}</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>['MZT2B', 'RPS21', 'YDJC', 'C6orf48', 'C12orf57', 'DPM3', 'MT-CO1', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['FAM173A']</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
         </is>
       </c>
     </row>
@@ -2366,24 +3296,39 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.8756410256410255</v>
+        <v>0.8564102564102561</v>
       </c>
       <c r="D63" t="n">
-        <v>0.945496383957922</v>
+        <v>0.9334648257725179</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>{'ENSG00000179085', 'ENSG00000111678', 'ENSG00000161179', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000175602', 'ENSG00000198804', 'ENSG00000204387', 'ENSG00000103254'}</t>
+          <t>{'ENSG00000152082', 'ENSG00000103254', 'ENSG00000171858', 'ENSG00000161179', 'ENSG00000204387', 'ENSG00000111678', 'ENSG00000179085', 'ENSG00000198804', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000141933'}</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>['MZT2B', 'FAM173A', 'RPS21', 'YDJC', 'C6orf48', 'C12orf57', 'DPM3', 'MT-CO1', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['TPGS1']</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
         </is>
       </c>
     </row>
@@ -2397,24 +3342,39 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8525641025641024</v>
       </c>
       <c r="D64" t="n">
-        <v>0.945036160420776</v>
+        <v>0.9320184089414858</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000179085', 'ENSG00000111678', 'ENSG00000161179', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000175602', 'ENSG00000198804', 'ENSG00000204387', 'ENSG00000103254'}</t>
+          <t>{'ENSG00000141933', 'ENSG00000152082', 'ENSG00000103254', 'ENSG00000171858', 'ENSG00000161179', 'ENSG00000204387', 'ENSG00000111678', 'ENSG00000179085', 'ENSG00000198804', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000130748'}</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>['TPGS1', 'MZT2B', 'FAM173A', 'RPS21', 'YDJC', 'C6orf48', 'C12orf57', 'DPM3', 'MT-CO1', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['TMEM160']</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
         </is>
       </c>
     </row>
@@ -2428,24 +3388,39 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.8525641025641025</v>
+        <v>0.842307692307692</v>
       </c>
       <c r="D65" t="n">
-        <v>0.950098619329388</v>
+        <v>0.934746877054569</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000179085', 'ENSG00000111678', 'ENSG00000161179', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000175602', 'ENSG00000198804', 'ENSG00000204387', 'ENSG00000103254', 'ENSG00000130748'}</t>
+          <t>{'ENSG00000141933', 'ENSG00000130748', 'ENSG00000152082', 'ENSG00000103254', 'ENSG00000161179', 'ENSG00000171858', 'ENSG00000204387', 'ENSG00000111678', 'ENSG00000179085', 'ENSG00000198804', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000112667'}</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>['TPGS1', 'TMEM160', 'MZT2B', 'FAM173A', 'YDJC', 'RPS21', 'C6orf48', 'C12orf57', 'DPM3', 'MT-CO1', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['DNPH1']</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
         </is>
       </c>
     </row>
@@ -2459,24 +3434,39 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.8576923076923075</v>
+        <v>0.8512820512820511</v>
       </c>
       <c r="D66" t="n">
-        <v>0.948257725180802</v>
+        <v>0.9365220249835631</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000179085', 'ENSG00000111678', 'ENSG00000161179', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000175602', 'ENSG00000198804', 'ENSG00000204387', 'ENSG00000103254', 'ENSG00000130748', 'ENSG00000112667'}</t>
+          <t>{'ENSG00000141933', 'ENSG00000130748', 'ENSG00000152082', 'ENSG00000103254', 'ENSG00000161179', 'ENSG00000171858', 'ENSG00000204387', 'ENSG00000111678', 'ENSG00000179085', 'ENSG00000112667', 'ENSG00000198804', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000188290'}</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>['TPGS1', 'TMEM160', 'MZT2B', 'FAM173A', 'YDJC', 'RPS21', 'C6orf48', 'C12orf57', 'DPM3', 'DNPH1', 'MT-CO1', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['HES4']</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
         </is>
       </c>
     </row>
@@ -2490,24 +3480,39 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.8410256410256405</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="D67" t="n">
-        <v>0.940828402366864</v>
+        <v>0.9283366206443127</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000188290', 'ENSG00000179085', 'ENSG00000111678', 'ENSG00000161179', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000175602', 'ENSG00000198804', 'ENSG00000204387', 'ENSG00000103254', 'ENSG00000130748', 'ENSG00000112667'}</t>
+          <t>{'ENSG00000141933', 'ENSG00000130748', 'ENSG00000152082', 'ENSG00000103254', 'ENSG00000161179', 'ENSG00000171858', 'ENSG00000204387', 'ENSG00000111678', 'ENSG00000179085', 'ENSG00000112667', 'ENSG00000198804', 'ENSG00000188290', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000198727'}</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>['TPGS1', 'TMEM160', 'MZT2B', 'FAM173A', 'YDJC', 'RPS21', 'C6orf48', 'C12orf57', 'DPM3', 'DNPH1', 'MT-CO1', 'HES4', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['MT-CYB']</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
         </is>
       </c>
     </row>
@@ -2521,24 +3526,39 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.8410256410256405</v>
+        <v>0.8294871794871792</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9389217619986849</v>
+        <v>0.9241946088099933</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000188290', 'ENSG00000179085', 'ENSG00000111678', 'ENSG00000198727', 'ENSG00000161179', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000175602', 'ENSG00000198804', 'ENSG00000204387', 'ENSG00000103254', 'ENSG00000130748', 'ENSG00000112667'}</t>
+          <t>{'ENSG00000141933', 'ENSG00000130748', 'ENSG00000152082', 'ENSG00000103254', 'ENSG00000161179', 'ENSG00000171858', 'ENSG00000204387', 'ENSG00000111678', 'ENSG00000198727', 'ENSG00000112667', 'ENSG00000198804', 'ENSG00000188290', 'ENSG00000179085', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000167700'}</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>['TPGS1', 'TMEM160', 'MZT2B', 'FAM173A', 'YDJC', 'RPS21', 'C6orf48', 'C12orf57', 'MT-CYB', 'DNPH1', 'MT-CO1', 'HES4', 'DPM3', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['MFSD3']</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
         </is>
       </c>
     </row>
@@ -2552,24 +3572,39 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.8461538461538456</v>
+        <v>0.8346153846153843</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9314266929651545</v>
+        <v>0.9188362919132147</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000188290', 'ENSG00000179085', 'ENSG00000111678', 'ENSG00000198727', 'ENSG00000161179', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000167700', 'ENSG00000175602', 'ENSG00000198804', 'ENSG00000204387', 'ENSG00000103254', 'ENSG00000130748', 'ENSG00000112667'}</t>
+          <t>{'ENSG00000141933', 'ENSG00000167700', 'ENSG00000130748', 'ENSG00000152082', 'ENSG00000103254', 'ENSG00000161179', 'ENSG00000171858', 'ENSG00000204387', 'ENSG00000111678', 'ENSG00000198727', 'ENSG00000112667', 'ENSG00000198804', 'ENSG00000188290', 'ENSG00000179085', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000198899'}</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>['TPGS1', 'MFSD3', 'TMEM160', 'MZT2B', 'FAM173A', 'YDJC', 'RPS21', 'C6orf48', 'C12orf57', 'MT-CYB', 'DNPH1', 'MT-CO1', 'HES4', 'DPM3', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['MT-ATP6']</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
         </is>
       </c>
     </row>
@@ -2583,24 +3618,39 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.8358974358974356</v>
+        <v>0.8230769230769228</v>
       </c>
       <c r="D70" t="n">
-        <v>0.937738330046022</v>
+        <v>0.9236028928336619</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000188290', 'ENSG00000179085', 'ENSG00000111678', 'ENSG00000198727', 'ENSG00000161179', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000167700', 'ENSG00000175602', 'ENSG00000198804', 'ENSG00000204387', 'ENSG00000198899', 'ENSG00000103254', 'ENSG00000130748', 'ENSG00000112667'}</t>
+          <t>{'ENSG00000141933', 'ENSG00000167700', 'ENSG00000130748', 'ENSG00000152082', 'ENSG00000103254', 'ENSG00000161179', 'ENSG00000171858', 'ENSG00000204387', 'ENSG00000111678', 'ENSG00000198899', 'ENSG00000198727', 'ENSG00000112667', 'ENSG00000198804', 'ENSG00000188290', 'ENSG00000179085', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000172780'}</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>['TPGS1', 'MFSD3', 'TMEM160', 'MZT2B', 'FAM173A', 'YDJC', 'RPS21', 'C6orf48', 'C12orf57', 'MT-ATP6', 'MT-CYB', 'DNPH1', 'MT-CO1', 'HES4', 'DPM3', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['RAB43']</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
         </is>
       </c>
     </row>
@@ -2614,24 +3664,39 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.8461538461538456</v>
+        <v>0.8384615384615384</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9347468770545695</v>
+        <v>0.9219263642340565</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>{'ENSG00000141933', 'ENSG00000188290', 'ENSG00000179085', 'ENSG00000111678', 'ENSG00000198727', 'ENSG00000161179', 'ENSG00000172780', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000171858', 'ENSG00000167700', 'ENSG00000175602', 'ENSG00000198804', 'ENSG00000204387', 'ENSG00000198899', 'ENSG00000103254', 'ENSG00000130748', 'ENSG00000112667'}</t>
+          <t>{'ENSG00000141933', 'ENSG00000167700', 'ENSG00000130748', 'ENSG00000152082', 'ENSG00000103254', 'ENSG00000161179', 'ENSG00000171858', 'ENSG00000172780', 'ENSG00000204387', 'ENSG00000111678', 'ENSG00000198899', 'ENSG00000198727', 'ENSG00000112667', 'ENSG00000198804', 'ENSG00000188290', 'ENSG00000179085', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000243449'}</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>['TPGS1', 'MFSD3', 'TMEM160', 'MZT2B', 'FAM173A', 'YDJC', 'RPS21', 'RAB43', 'C6orf48', 'C12orf57', 'MT-ATP6', 'MT-CYB', 'DNPH1', 'MT-CO1', 'HES4', 'DPM3', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['C4orf48']</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
         </is>
       </c>
     </row>
@@ -2645,24 +3710,39 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8448717948717946</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9470742932281395</v>
+        <v>0.9343852728468111</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000179085', 'ENSG00000111678', 'ENSG00000172780', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000204387', 'ENSG00000171858', 'ENSG00000243449', 'ENSG00000198899', 'ENSG00000112667', 'ENSG00000141933', 'ENSG00000198727', 'ENSG00000161179', 'ENSG00000175602', 'ENSG00000167700', 'ENSG00000198804', 'ENSG00000103254', 'ENSG00000130748'}</t>
+          <t>{'ENSG00000141933', 'ENSG00000167700', 'ENSG00000130748', 'ENSG00000152082', 'ENSG00000103254', 'ENSG00000172780', 'ENSG00000161179', 'ENSG00000171858', 'ENSG00000204387', 'ENSG00000243449', 'ENSG00000198727', 'ENSG00000111678', 'ENSG00000198899', 'ENSG00000179085', 'ENSG00000112667', 'ENSG00000198804', 'ENSG00000188290', 'ENSG00000175602'}</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000167476'}</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>['TPGS1', 'MFSD3', 'TMEM160', 'MZT2B', 'FAM173A', 'RAB43', 'YDJC', 'RPS21', 'C6orf48', 'C4orf48', 'MT-CYB', 'C12orf57', 'MT-ATP6', 'DPM3', 'DNPH1', 'MT-CO1', 'HES4', 'CCDC85B']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['JSRP1']</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
         </is>
       </c>
     </row>
@@ -2676,24 +3756,39 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.8487179487179486</v>
+        <v>0.8371794871794871</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9469099276791579</v>
+        <v>0.9364234056541747</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>{'ENSG00000188290', 'ENSG00000179085', 'ENSG00000111678', 'ENSG00000172780', 'ENSG00000203875', 'ENSG00000152082', 'ENSG00000204387', 'ENSG00000171858', 'ENSG00000243449', 'ENSG00000198899', 'ENSG00000167476', 'ENSG00000112667', 'ENSG00000141933', 'ENSG00000198727', 'ENSG00000161179', 'ENSG00000175602', 'ENSG00000167700', 'ENSG00000198804', 'ENSG00000103254', 'ENSG00000130748'}</t>
+          <t>{'ENSG00000167476', 'ENSG00000167700', 'ENSG00000175602', 'ENSG00000152082', 'ENSG00000172780', 'ENSG00000111678', 'ENSG00000112667', 'ENSG00000179085', 'ENSG00000141933', 'ENSG00000204387', 'ENSG00000198899', 'ENSG00000188290', 'ENSG00000130748', 'ENSG00000103254', 'ENSG00000161179', 'ENSG00000171858', 'ENSG00000243449', 'ENSG00000198804', 'ENSG00000198727'}</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000233493'}</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>['JSRP1', 'MFSD3', 'CCDC85B', 'MZT2B', 'RAB43', 'C12orf57', 'DNPH1', 'DPM3', 'TPGS1', 'C6orf48', 'MT-ATP6', 'HES4', 'TMEM160', 'FAM173A', 'YDJC', 'RPS21', 'C4orf48', 'MT-CO1', 'MT-CYB']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['TMEM238']</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
         </is>
       </c>
     </row>
@@ -2707,10 +3802,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.8474358974358975</v>
+        <v>0.8679487179487175</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9216962524654835</v>
+        <v>0.9282708744247203</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2719,12 +3814,27 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>{'ENSG00000272906', 'ENSG00000269893', 'ENSG00000236552'}</t>
+          <t>{'ENSG00000203875', 'ENSG00000236552', 'ENSG00000269893'}</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>{'ENSG00000278771', 'ENSG00000226085', 'ENSG00000231351'}</t>
+          <t>{'ENSG00000226085', 'ENSG00000278771', 'ENSG00000231351'}</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['SNHG5', 'RPL13AP5', 'SNHG8']</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>['UQCRFS1P1', 'Metazoa_SRP', 'AC111200.7']</t>
         </is>
       </c>
     </row>
@@ -2738,10 +3848,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.8717948717948716</v>
+        <v>0.8833333333333331</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9431952662721895</v>
+        <v>0.9492439184746875</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2750,12 +3860,27 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>{'ENSG00000213442', 'ENSG00000225864', 'ENSG00000269893', 'ENSG00000236552'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000269893'}</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>{'ENSG00000278771', 'ENSG00000226085', 'ENSG00000231351', 'ENSG00000239040'}</t>
+          <t>{'ENSG00000226085', 'ENSG00000239040', 'ENSG00000278771', 'ENSG00000231351'}</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'SNHG5', 'RPL13AP5', 'SNHG8']</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>['UQCRFS1P1', 'Y_RNA', 'Metazoa_SRP', 'AC111200.7']</t>
         </is>
       </c>
     </row>
@@ -2769,24 +3894,39 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.8730769230769225</v>
+        <v>0.8756410256410254</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9429322813938195</v>
+        <v>0.9392833662064429</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000278771'}</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>{'ENSG00000236552', 'ENSG00000213442', 'ENSG00000225864', 'ENSG00000272906', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000203875', 'ENSG00000236552', 'ENSG00000269893', 'ENSG00000272906'}</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>{'ENSG00000231351', 'ENSG00000237842', 'ENSG00000239040', 'ENSG00000278771', 'ENSG00000226085'}</t>
+          <t>{'ENSG00000226085', 'ENSG00000239040', 'ENSG00000231351', 'ENSG00000237842'}</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>['Metazoa_SRP']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['SNHG5', 'RPL13AP5', 'SNHG8', 'RP11-533E19.7']</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>['UQCRFS1P1', 'Y_RNA', 'AC111200.7', 'RP11-110J1.2']</t>
         </is>
       </c>
     </row>
@@ -2800,10 +3940,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.8807692307692305</v>
+        <v>0.8756410256410253</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9527284681130834</v>
+        <v>0.9523997370151216</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2812,12 +3952,27 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>{'ENSG00000236552', 'ENSG00000225864', 'ENSG00000272906', 'ENSG00000269893', 'ENSG00000265393'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000213442', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000269893'}</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>{'ENSG00000231351', 'ENSG00000237842', 'ENSG00000239040', 'ENSG00000226085', 'ENSG00000267672'}</t>
+          <t>{'ENSG00000239040', 'ENSG00000231351', 'ENSG00000267672', 'ENSG00000226085', 'ENSG00000237842'}</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>['Metazoa_SRP']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'RPL18AP3', 'SNHG5', 'RPL13AP5', 'SNHG8']</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>['Y_RNA', 'AC111200.7', 'CTD-2293H3.1', 'UQCRFS1P1', 'RP11-110J1.2']</t>
         </is>
       </c>
     </row>
@@ -2831,10 +3986,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.8551282051282045</v>
+        <v>0.8589743589743586</v>
       </c>
       <c r="D78" t="n">
-        <v>0.949375410913872</v>
+        <v>0.9530571992110451</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2843,12 +3998,27 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>{'ENSG00000236552', 'ENSG00000213442', 'ENSG00000228205', 'ENSG00000225864', 'ENSG00000272906', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000213442', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000269893', 'ENSG00000272906'}</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>{'ENSG00000231351', 'ENSG00000237842', 'ENSG00000207003', 'ENSG00000239040', 'ENSG00000226085', 'ENSG00000267672'}</t>
+          <t>{'ENSG00000239040', 'ENSG00000231351', 'ENSG00000267672', 'ENSG00000207003', 'ENSG00000226085', 'ENSG00000237842'}</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>['Metazoa_SRP']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'RPL18AP3', 'SNHG5', 'RPL13AP5', 'SNHG8', 'RP11-533E19.7']</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>['Y_RNA', 'AC111200.7', 'CTD-2293H3.1', 'RNU6-611P', 'UQCRFS1P1', 'RP11-110J1.2']</t>
         </is>
       </c>
     </row>
@@ -2862,10 +4032,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8717948717948714</v>
       </c>
       <c r="D79" t="n">
-        <v>0.917554240631163</v>
+        <v>0.9264957264957262</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2874,12 +4044,27 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>{'ENSG00000236552', 'ENSG00000213442', 'ENSG00000225864', 'ENSG00000272906', 'ENSG00000276791', 'ENSG00000265393', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000213442', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000265393', 'ENSG00000269893', 'ENSG00000272906'}</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>{'ENSG00000231351', 'ENSG00000237842', 'ENSG00000207003', 'ENSG00000239040', 'ENSG00000226085', 'ENSG00000267672', 'ENSG00000266538'}</t>
+          <t>{'ENSG00000239040', 'ENSG00000231351', 'ENSG00000267672', 'ENSG00000266538', 'ENSG00000207003', 'ENSG00000226085', 'ENSG00000237842'}</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>['Metazoa_SRP']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'RPL18AP3', 'SNHG5', 'RPL13AP5', 'CTD-2517M22.17', 'SNHG8', 'RP11-533E19.7']</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>['Y_RNA', 'AC111200.7', 'CTD-2293H3.1', 'RP11-385D13.3', 'RNU6-611P', 'UQCRFS1P1', 'RP11-110J1.2']</t>
         </is>
       </c>
     </row>
@@ -2893,24 +4078,39 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.8512820512820505</v>
+        <v>0.8512820512820509</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8926364234056541</v>
+        <v>0.8972386587771201</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>{'ENSG00000278771', 'ENSG00000226085'}</t>
+          <t>{'ENSG00000226085', 'ENSG00000278771'}</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>{'ENSG00000236552', 'ENSG00000240877', 'ENSG00000213442', 'ENSG00000225864', 'ENSG00000272906', 'ENSG00000269893', 'ENSG00000265393'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000213442', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000265393', 'ENSG00000269893', 'ENSG00000272906'}</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>{'ENSG00000231351', 'ENSG00000237842', 'ENSG00000207003', 'ENSG00000239040', 'ENSG00000200183', 'ENSG00000267672', 'ENSG00000266538'}</t>
+          <t>{'ENSG00000239040', 'ENSG00000231351', 'ENSG00000267672', 'ENSG00000266538', 'ENSG00000207003', 'ENSG00000200183', 'ENSG00000237842'}</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>['UQCRFS1P1', 'Metazoa_SRP']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'RPL18AP3', 'SNHG5', 'RPL13AP5', 'CTD-2517M22.17', 'SNHG8', 'RP11-533E19.7']</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>['Y_RNA', 'AC111200.7', 'CTD-2293H3.1', 'RP11-385D13.3', 'RNU6-611P', 'RNU6-238P', 'RP11-110J1.2']</t>
         </is>
       </c>
     </row>
@@ -2924,24 +4124,39 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.8641025641025635</v>
+        <v>0.8743589743589741</v>
       </c>
       <c r="D81" t="n">
-        <v>0.931788297172912</v>
+        <v>0.9383629191321496</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>{'ENSG00000278771', 'ENSG00000226085'}</t>
+          <t>{'ENSG00000226085', 'ENSG00000278771'}</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>{'ENSG00000236552', 'ENSG00000277383', 'ENSG00000225178', 'ENSG00000228205', 'ENSG00000225864', 'ENSG00000272906', 'ENSG00000276791', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000213442', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000273599', 'ENSG00000269893', 'ENSG00000225178', 'ENSG00000272906'}</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>{'ENSG00000231351', 'ENSG00000272599', 'ENSG00000237842', 'ENSG00000207003', 'ENSG00000239040', 'ENSG00000200183', 'ENSG00000267672', 'ENSG00000266538'}</t>
+          <t>{'ENSG00000239040', 'ENSG00000231351', 'ENSG00000267672', 'ENSG00000266538', 'ENSG00000207003', 'ENSG00000200183', 'ENSG00000272599', 'ENSG00000237842'}</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>['UQCRFS1P1', 'Metazoa_SRP']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'RPL18AP3', 'SNHG5', 'RPL13AP5', 'RP11-59C5.3', 'SNHG8', 'RPSAP58', 'RP11-533E19.7']</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>['Y_RNA', 'AC111200.7', 'CTD-2293H3.1', 'RP11-385D13.3', 'RNU6-611P', 'RNU6-238P', 'RP11-152N13.16', 'RP11-110J1.2']</t>
         </is>
       </c>
     </row>
@@ -2955,24 +4170,39 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.8858974358974361</v>
+        <v>0.8769230769230765</v>
       </c>
       <c r="D82" t="n">
-        <v>0.958842866535174</v>
+        <v>0.9603550295857985</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>{'ENSG00000278771', 'ENSG00000226085', 'ENSG00000231351', 'ENSG00000237842'}</t>
+          <t>{'ENSG00000226085', 'ENSG00000278771'}</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>{'ENSG00000236552', 'ENSG00000273599', 'ENSG00000213442', 'ENSG00000225864', 'ENSG00000272906', 'ENSG00000269893', 'ENSG00000272677'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000213442', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000228205', 'ENSG00000265393', 'ENSG00000269893', 'ENSG00000277383', 'ENSG00000272906'}</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>{'ENSG00000272599', 'ENSG00000207003', 'ENSG00000239040', 'ENSG00000200183', 'ENSG00000267672', 'ENSG00000270210', 'ENSG00000266538'}</t>
+          <t>{'ENSG00000270210', 'ENSG00000239040', 'ENSG00000231351', 'ENSG00000267672', 'ENSG00000266538', 'ENSG00000207003', 'ENSG00000200183', 'ENSG00000272599', 'ENSG00000237842'}</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>['UQCRFS1P1', 'Metazoa_SRP']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'RPL18AP3', 'SNHG5', 'RPL13AP5', 'RP11-778D9.4', 'CTD-2517M22.17', 'SNHG8', 'CTD-3001H11.2', 'RP11-533E19.7']</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>['RP11-373D23.3', 'Y_RNA', 'AC111200.7', 'CTD-2293H3.1', 'RP11-385D13.3', 'RNU6-611P', 'RNU6-238P', 'RP11-152N13.16', 'RP11-110J1.2']</t>
         </is>
       </c>
     </row>
@@ -2986,24 +4216,39 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.852564102564102</v>
+        <v>0.8448717948717945</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9517422748191975</v>
+        <v>0.958842866535174</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>{'ENSG00000278771', 'ENSG00000226085'}</t>
+          <t>{'ENSG00000226085', 'ENSG00000278771'}</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000236552', 'ENSG00000240877', 'ENSG00000277383', 'ENSG00000225178', 'ENSG00000213442', 'ENSG00000228205', 'ENSG00000225864', 'ENSG00000272906', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000213442', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000228205', 'ENSG00000265393', 'ENSG00000269893', 'ENSG00000225178', 'ENSG00000277383', 'ENSG00000272906'}</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>{'ENSG00000231351', 'ENSG00000272599', 'ENSG00000237842', 'ENSG00000228797', 'ENSG00000207003', 'ENSG00000239040', 'ENSG00000200183', 'ENSG00000267672', 'ENSG00000270210', 'ENSG00000266538'}</t>
+          <t>{'ENSG00000228797', 'ENSG00000270210', 'ENSG00000239040', 'ENSG00000231351', 'ENSG00000267672', 'ENSG00000266538', 'ENSG00000207003', 'ENSG00000200183', 'ENSG00000272599', 'ENSG00000237842'}</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>['UQCRFS1P1', 'Metazoa_SRP']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'RPL18AP3', 'SNHG5', 'RPL13AP5', 'RP11-778D9.4', 'CTD-2517M22.17', 'SNHG8', 'RPSAP58', 'CTD-3001H11.2', 'RP11-533E19.7']</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>['FAM207BP', 'RP11-373D23.3', 'Y_RNA', 'AC111200.7', 'CTD-2293H3.1', 'RP11-385D13.3', 'RNU6-611P', 'RNU6-238P', 'RP11-152N13.16', 'RP11-110J1.2']</t>
         </is>
       </c>
     </row>
@@ -3017,24 +4262,39 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.8641025641025635</v>
+        <v>0.8538461538461535</v>
       </c>
       <c r="D84" t="n">
-        <v>0.950164365548981</v>
+        <v>0.9522024983563443</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>{'ENSG00000278771', 'ENSG00000226085', 'ENSG00000237842'}</t>
+          <t>{'ENSG00000226085', 'ENSG00000278771', 'ENSG00000231351'}</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000236552', 'ENSG00000240877', 'ENSG00000225178', 'ENSG00000213442', 'ENSG00000228205', 'ENSG00000225864', 'ENSG00000272906', 'ENSG00000269893', 'ENSG00000265393'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000213442', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000228205', 'ENSG00000265393', 'ENSG00000269893', 'ENSG00000215030', 'ENSG00000277383', 'ENSG00000272906'}</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>{'ENSG00000221164', 'ENSG00000231351', 'ENSG00000272599', 'ENSG00000228797', 'ENSG00000207003', 'ENSG00000239040', 'ENSG00000200183', 'ENSG00000267672', 'ENSG00000270210', 'ENSG00000266538'}</t>
+          <t>{'ENSG00000228797', 'ENSG00000270210', 'ENSG00000239040', 'ENSG00000267672', 'ENSG00000266538', 'ENSG00000207003', 'ENSG00000200183', 'ENSG00000221164', 'ENSG00000272599', 'ENSG00000237842'}</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>['UQCRFS1P1', 'Metazoa_SRP', 'AC111200.7']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'RPL18AP3', 'SNHG5', 'RPL13AP5', 'RP11-778D9.4', 'CTD-2517M22.17', 'SNHG8', 'RPL13P12', 'CTD-3001H11.2', 'RP11-533E19.7']</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>['FAM207BP', 'RP11-373D23.3', 'Y_RNA', 'CTD-2293H3.1', 'RP11-385D13.3', 'RNU6-611P', 'RNU6-238P', 'SNORA11', 'RP11-152N13.16', 'RP11-110J1.2']</t>
         </is>
       </c>
     </row>
@@ -3048,24 +4308,39 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.8576923076923071</v>
+        <v>0.8576923076923073</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9460223537146615</v>
+        <v>0.9459566074950688</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>{'ENSG00000278771', 'ENSG00000226085', 'ENSG00000237842', 'ENSG00000266538'}</t>
+          <t>{'ENSG00000226085', 'ENSG00000278771', 'ENSG00000237842'}</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>{'ENSG00000236552', 'ENSG00000277383', 'ENSG00000240877', 'ENSG00000225178', 'ENSG00000213442', 'ENSG00000228205', 'ENSG00000225864', 'ENSG00000272906', 'ENSG00000269893', 'ENSG00000265393'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000213442', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000228205', 'ENSG00000276791', 'ENSG00000273599', 'ENSG00000269893', 'ENSG00000277383', 'ENSG00000272906', 'ENSG00000232229'}</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>{'ENSG00000221164', 'ENSG00000231351', 'ENSG00000272599', 'ENSG00000228797', 'ENSG00000207003', 'ENSG00000239040', 'ENSG00000200183', 'ENSG00000267672', 'ENSG00000270210', 'ENSG00000224672'}</t>
+          <t>{'ENSG00000228797', 'ENSG00000224672', 'ENSG00000270210', 'ENSG00000239040', 'ENSG00000231351', 'ENSG00000267672', 'ENSG00000266538', 'ENSG00000207003', 'ENSG00000200183', 'ENSG00000221164', 'ENSG00000272599'}</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>['UQCRFS1P1', 'Metazoa_SRP', 'RP11-110J1.2']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'RPL18AP3', 'SNHG5', 'RPL13AP5', 'RP11-778D9.4', 'CTD-2270P14.5', 'RP11-59C5.3', 'SNHG8', 'CTD-3001H11.2', 'RP11-533E19.7', 'LINC00865']</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>['FAM207BP', 'AC007272.3', 'RP11-373D23.3', 'Y_RNA', 'AC111200.7', 'CTD-2293H3.1', 'RP11-385D13.3', 'RNU6-611P', 'RNU6-238P', 'SNORA11', 'RP11-152N13.16']</t>
         </is>
       </c>
     </row>
@@ -3079,24 +4354,39 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.8358974358974356</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="D86" t="n">
-        <v>0.932445759368836</v>
+        <v>0.9402366863905325</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>{'ENSG00000278771', 'ENSG00000226085', 'ENSG00000225864', 'ENSG00000231351'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000278771', 'ENSG00000226085', 'ENSG00000237842'}</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000236552', 'ENSG00000273599', 'ENSG00000240877', 'ENSG00000277383', 'ENSG00000225178', 'ENSG00000213442', 'ENSG00000272906', 'ENSG00000269893', 'ENSG00000265393', 'ENSG00000272677'}</t>
+          <t>{'ENSG00000272677', 'ENSG00000213442', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000228205', 'ENSG00000265393', 'ENSG00000269893', 'ENSG00000225178', 'ENSG00000277383', 'ENSG00000272906', 'ENSG00000222020'}</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>{'ENSG00000221164', 'ENSG00000237842', 'ENSG00000272599', 'ENSG00000228797', 'ENSG00000207003', 'ENSG00000239040', 'ENSG00000200183', 'ENSG00000267672', 'ENSG00000270210', 'ENSG00000266538', 'ENSG00000224672'}</t>
+          <t>{'ENSG00000228797', 'ENSG00000224672', 'ENSG00000270210', 'ENSG00000239040', 'ENSG00000231351', 'ENSG00000267672', 'ENSG00000266538', 'ENSG00000207003', 'ENSG00000200183', 'ENSG00000221164', 'ENSG00000272599'}</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'Metazoa_SRP', 'UQCRFS1P1', 'RP11-110J1.2']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['RP11-127B20.3', 'RPL18AP3', 'SNHG5', 'RPL13AP5', 'RP11-778D9.4', 'CTD-2517M22.17', 'SNHG8', 'RPSAP58', 'CTD-3001H11.2', 'RP11-533E19.7', 'AC062017.1']</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>['FAM207BP', 'AC007272.3', 'RP11-373D23.3', 'Y_RNA', 'AC111200.7', 'CTD-2293H3.1', 'RP11-385D13.3', 'RNU6-611P', 'RNU6-238P', 'SNORA11', 'RP11-152N13.16']</t>
         </is>
       </c>
     </row>
@@ -3110,24 +4400,39 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.9192307692307691</v>
+        <v>0.9102564102564099</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9760683760683759</v>
+        <v>0.9777120315581851</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>{'ENSG00000237842', 'ENSG00000225864', 'ENSG00000278771', 'ENSG00000226085', 'ENSG00000269893', 'ENSG00000266538'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000278771', 'ENSG00000266538', 'ENSG00000269893', 'ENSG00000226085'}</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000236552', 'ENSG00000273599', 'ENSG00000240877', 'ENSG00000277383', 'ENSG00000225178', 'ENSG00000213442', 'ENSG00000272906', 'ENSG00000265393', 'ENSG00000272677'}</t>
+          <t>{'ENSG00000272677', 'ENSG00000213442', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000276791', 'ENSG00000228205', 'ENSG00000265393', 'ENSG00000240877', 'ENSG00000277383', 'ENSG00000272906', 'ENSG00000232229'}</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>{'ENSG00000221164', 'ENSG00000231351', 'ENSG00000272599', 'ENSG00000228797', 'ENSG00000207003', 'ENSG00000239040', 'ENSG00000200183', 'ENSG00000267672', 'ENSG00000270210', 'ENSG00000224672'}</t>
+          <t>{'ENSG00000228797', 'ENSG00000224672', 'ENSG00000270210', 'ENSG00000239040', 'ENSG00000231351', 'ENSG00000267672', 'ENSG00000207003', 'ENSG00000200183', 'ENSG00000221164', 'ENSG00000272599', 'ENSG00000237842'}</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'Metazoa_SRP', 'RP11-385D13.3', 'SNHG8', 'UQCRFS1P1']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['RP11-127B20.3', 'RPL18AP3', 'SNHG5', 'RPL13AP5', 'CTD-2270P14.5', 'RP11-778D9.4', 'CTD-2517M22.17', 'RN7SL521P', 'CTD-3001H11.2', 'RP11-533E19.7', 'LINC00865']</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>['FAM207BP', 'AC007272.3', 'RP11-373D23.3', 'Y_RNA', 'AC111200.7', 'CTD-2293H3.1', 'RNU6-611P', 'RNU6-238P', 'SNORA11', 'RP11-152N13.16', 'RP11-110J1.2']</t>
         </is>
       </c>
     </row>
@@ -3141,24 +4446,39 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.91025641025641</v>
+        <v>0.8987179487179484</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9729783037475346</v>
+        <v>0.9731755424063113</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>{'ENSG00000231351', 'ENSG00000237842', 'ENSG00000273599', 'ENSG00000225864', 'ENSG00000278771', 'ENSG00000226085', 'ENSG00000269893', 'ENSG00000266538'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000231351', 'ENSG00000278771', 'ENSG00000266538', 'ENSG00000269893', 'ENSG00000237842'}</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000236552', 'ENSG00000277383', 'ENSG00000225178', 'ENSG00000213442', 'ENSG00000228205', 'ENSG00000222020', 'ENSG00000272906', 'ENSG00000265393'}</t>
+          <t>{'ENSG00000272677', 'ENSG00000213442', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000276791', 'ENSG00000228205', 'ENSG00000272256', 'ENSG00000265393', 'ENSG00000225178', 'ENSG00000277383', 'ENSG00000272906'}</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>{'ENSG00000221164', 'ENSG00000272599', 'ENSG00000228797', 'ENSG00000207003', 'ENSG00000239040', 'ENSG00000200183', 'ENSG00000267672', 'ENSG00000270210', 'ENSG00000224672'}</t>
+          <t>{'ENSG00000228797', 'ENSG00000224672', 'ENSG00000270210', 'ENSG00000239040', 'ENSG00000267672', 'ENSG00000273599', 'ENSG00000207003', 'ENSG00000226085', 'ENSG00000200183', 'ENSG00000221164', 'ENSG00000272599'}</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'AC111200.7', 'Metazoa_SRP', 'RP11-385D13.3', 'SNHG8', 'RP11-110J1.2']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['RP11-127B20.3', 'RPL18AP3', 'SNHG5', 'RPL13AP5', 'CTD-2270P14.5', 'RP11-778D9.4', 'RP11-489E7.4', 'CTD-2517M22.17', 'RPSAP58', 'CTD-3001H11.2', 'RP11-533E19.7']</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>['FAM207BP', 'AC007272.3', 'RP11-373D23.3', 'Y_RNA', 'CTD-2293H3.1', 'RP11-59C5.3', 'RNU6-611P', 'UQCRFS1P1', 'RNU6-238P', 'SNORA11', 'RP11-152N13.16']</t>
         </is>
       </c>
     </row>
@@ -3172,24 +4492,39 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.917948717948718</v>
+        <v>0.9205128205128201</v>
       </c>
       <c r="D89" t="n">
-        <v>0.974490466798159</v>
+        <v>0.9779750164365548</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>{'ENSG00000237842', 'ENSG00000273599', 'ENSG00000225864', 'ENSG00000278771', 'ENSG00000226085', 'ENSG00000269893', 'ENSG00000266538'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000231351', 'ENSG00000278771', 'ENSG00000266538', 'ENSG00000207003', 'ENSG00000269893', 'ENSG00000226085', 'ENSG00000237842'}</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000236552', 'ENSG00000277383', 'ENSG00000240877', 'ENSG00000225178', 'ENSG00000213442', 'ENSG00000228205', 'ENSG00000222020', 'ENSG00000272906', 'ENSG00000232229', 'ENSG00000265393'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000272256', 'ENSG00000228205', 'ENSG00000265393', 'ENSG00000215030', 'ENSG00000225178', 'ENSG00000272906', 'ENSG00000232229'}</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>{'ENSG00000221164', 'ENSG00000231351', 'ENSG00000272599', 'ENSG00000200183', 'ENSG00000228797', 'ENSG00000207003', 'ENSG00000239040', 'ENSG00000270210', 'ENSG00000267672', 'ENSG00000276791', 'ENSG00000224672'}</t>
+          <t>{'ENSG00000228797', 'ENSG00000224672', 'ENSG00000276791', 'ENSG00000270210', 'ENSG00000239040', 'ENSG00000267672', 'ENSG00000273599', 'ENSG00000200183', 'ENSG00000221164', 'ENSG00000272599'}</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'AC111200.7', 'Metazoa_SRP', 'RP11-385D13.3', 'RNU6-611P', 'SNHG8', 'UQCRFS1P1', 'RP11-110J1.2']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'SNHG5', 'RPL13AP5', 'RP11-489E7.4', 'RP11-778D9.4', 'CTD-2517M22.17', 'RPL13P12', 'RPSAP58', 'RP11-533E19.7', 'LINC00865']</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>['FAM207BP', 'AC007272.3', 'CTD-2270P14.5', 'RP11-373D23.3', 'Y_RNA', 'CTD-2293H3.1', 'RP11-59C5.3', 'RNU6-238P', 'SNORA11', 'RP11-152N13.16']</t>
         </is>
       </c>
     </row>
@@ -3203,24 +4538,39 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.917948717948718</v>
+        <v>0.9205128205128201</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9750821827744904</v>
+        <v>0.9781722550953318</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>{'ENSG00000231351', 'ENSG00000237842', 'ENSG00000273599', 'ENSG00000278771', 'ENSG00000225864', 'ENSG00000226085', 'ENSG00000200183', 'ENSG00000276791', 'ENSG00000266538', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000276791', 'ENSG00000231351', 'ENSG00000278771', 'ENSG00000266538', 'ENSG00000273599', 'ENSG00000269893', 'ENSG00000226085', 'ENSG00000237842'}</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000236552', 'ENSG00000277383', 'ENSG00000240877', 'ENSG00000225178', 'ENSG00000228205', 'ENSG00000213442', 'ENSG00000272906', 'ENSG00000265393'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000265393', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000228205', 'ENSG00000215030', 'ENSG00000225178', 'ENSG00000240877', 'ENSG00000277383', 'ENSG00000272906'}</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>{'ENSG00000221164', 'ENSG00000272599', 'ENSG00000228797', 'ENSG00000207003', 'ENSG00000239040', 'ENSG00000267672', 'ENSG00000270210', 'ENSG00000224672', 'ENSG00000272677'}</t>
+          <t>{'ENSG00000228797', 'ENSG00000224672', 'ENSG00000272677', 'ENSG00000270210', 'ENSG00000239040', 'ENSG00000267672', 'ENSG00000207003', 'ENSG00000200183', 'ENSG00000221164', 'ENSG00000272599'}</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'CTD-2270P14.5', 'AC111200.7', 'Metazoa_SRP', 'RP11-385D13.3', 'RP11-59C5.3', 'SNHG8', 'UQCRFS1P1', 'RP11-110J1.2']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'CTD-2517M22.17', 'SNHG5', 'RPL13AP5', 'RP11-778D9.4', 'RPL13P12', 'RPSAP58', 'RN7SL521P', 'CTD-3001H11.2', 'RP11-533E19.7']</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>['FAM207BP', 'AC007272.3', 'RP11-127B20.3', 'RP11-373D23.3', 'Y_RNA', 'CTD-2293H3.1', 'RNU6-611P', 'RNU6-238P', 'SNORA11', 'RP11-152N13.16']</t>
         </is>
       </c>
     </row>
@@ -3234,24 +4584,39 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.9230769230769225</v>
+        <v>0.9282051282051278</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9726495726495725</v>
+        <v>0.9774490466798158</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>{'ENSG00000231351', 'ENSG00000237842', 'ENSG00000273599', 'ENSG00000278771', 'ENSG00000207003', 'ENSG00000225864', 'ENSG00000226085', 'ENSG00000269893', 'ENSG00000266538'}</t>
+          <t>{'ENSG00000272677', 'ENSG00000225864', 'ENSG00000231351', 'ENSG00000278771', 'ENSG00000266538', 'ENSG00000273599', 'ENSG00000269893', 'ENSG00000226085', 'ENSG00000237842'}</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000236552', 'ENSG00000277383', 'ENSG00000240877', 'ENSG00000225178', 'ENSG00000213442', 'ENSG00000228205', 'ENSG00000222020', 'ENSG00000272906', 'ENSG00000232229', 'ENSG00000265393'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000265393', 'ENSG00000272256', 'ENSG00000203875', 'ENSG00000236552', 'ENSG00000228205', 'ENSG00000215030', 'ENSG00000225178', 'ENSG00000277383', 'ENSG00000272906', 'ENSG00000232229'}</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>{'ENSG00000221164', 'ENSG00000272599', 'ENSG00000228797', 'ENSG00000224442', 'ENSG00000267672', 'ENSG00000239040', 'ENSG00000270210', 'ENSG00000200183', 'ENSG00000276791', 'ENSG00000224672', 'ENSG00000272677'}</t>
+          <t>{'ENSG00000228797', 'ENSG00000224672', 'ENSG00000276791', 'ENSG00000270210', 'ENSG00000239040', 'ENSG00000224442', 'ENSG00000267672', 'ENSG00000207003', 'ENSG00000200183', 'ENSG00000221164', 'ENSG00000272599'}</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>['RP11-127B20.3', 'HCG4P11', 'AC111200.7', 'Metazoa_SRP', 'RP11-385D13.3', 'RP11-59C5.3', 'SNHG8', 'UQCRFS1P1', 'RP11-110J1.2']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'CTD-2517M22.17', 'RP11-489E7.4', 'SNHG5', 'RPL13AP5', 'RP11-778D9.4', 'RPL13P12', 'RPSAP58', 'CTD-3001H11.2', 'RP11-533E19.7', 'LINC00865']</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>['FAM207BP', 'AC007272.3', 'CTD-2270P14.5', 'RP11-373D23.3', 'Y_RNA', 'AC017035.2', 'CTD-2293H3.1', 'RNU6-611P', 'RNU6-238P', 'SNORA11', 'RP11-152N13.16']</t>
         </is>
       </c>
     </row>
@@ -3265,24 +4630,39 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.8179487179487175</v>
+        <v>0.8358974358974358</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8736357659434586</v>
+        <v>0.8938198553583165</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>{'ENSG00000213442', 'ENSG00000215030', 'ENSG00000236552'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000236552'}</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000215030'}</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'RPL13AP5']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>['RPL13P12']</t>
         </is>
       </c>
     </row>
@@ -3296,24 +4676,39 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.812820512820512</v>
+        <v>0.8179487179487177</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8588428665351739</v>
+        <v>0.8786653517422746</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>{'ENSG00000213442', 'ENSG00000215030', 'ENSG00000225178', 'ENSG00000236552'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000236552', 'ENSG00000215030'}</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000225178'}</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'RPL13AP5', 'RPL13P12']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>['RPSAP58']</t>
         </is>
       </c>
     </row>
@@ -3327,24 +4722,39 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.8397435897435895</v>
+        <v>0.8256410256410254</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9032215647600259</v>
+        <v>0.907955292570677</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000236552', 'ENSG00000225178', 'ENSG00000213442', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000236552', 'ENSG00000215030', 'ENSG00000225178'}</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000269893'}</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'RPL13AP5', 'RPL13P12', 'RPSAP58']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>['SNHG8']</t>
         </is>
       </c>
     </row>
@@ -3358,24 +4768,39 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.8269230769230771</v>
+        <v>0.8179487179487178</v>
       </c>
       <c r="D95" t="n">
-        <v>0.8630177514792895</v>
+        <v>0.8753122945430636</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000236552', 'ENSG00000225178', 'ENSG00000213442', 'ENSG00000276791', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000236552', 'ENSG00000269893', 'ENSG00000215030', 'ENSG00000225178'}</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000276791'}</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'RPL13AP5', 'SNHG8', 'RPL13P12', 'RPSAP58']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>['CTD-2270P14.5']</t>
         </is>
       </c>
     </row>
@@ -3389,24 +4814,39 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.8115384615384615</v>
+        <v>0.8012820512820511</v>
       </c>
       <c r="D96" t="n">
-        <v>0.890532544378698</v>
+        <v>0.895792241946088</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000236552', 'ENSG00000225178', 'ENSG00000213442', 'ENSG00000272906', 'ENSG00000276791', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000276791', 'ENSG00000236552', 'ENSG00000269893', 'ENSG00000215030', 'ENSG00000225178'}</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000272906'}</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'CTD-2270P14.5', 'RPL13AP5', 'SNHG8', 'RPL13P12', 'RPSAP58']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>['RP11-533E19.7']</t>
         </is>
       </c>
     </row>
@@ -3420,24 +4860,39 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.829487179487179</v>
+        <v>0.8371794871794871</v>
       </c>
       <c r="D97" t="n">
-        <v>0.888198553583169</v>
+        <v>0.8973044049967125</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000232229', 'ENSG00000236552', 'ENSG00000225178', 'ENSG00000213442', 'ENSG00000272906', 'ENSG00000276791', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000276791', 'ENSG00000236552', 'ENSG00000269893', 'ENSG00000215030', 'ENSG00000225178', 'ENSG00000272906'}</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000232229'}</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'CTD-2270P14.5', 'RPL13AP5', 'SNHG8', 'RPL13P12', 'RPSAP58', 'RP11-533E19.7']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>['LINC00865']</t>
         </is>
       </c>
     </row>
@@ -3451,24 +4906,39 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.805128205128205</v>
+        <v>0.8166666666666664</v>
       </c>
       <c r="D98" t="n">
-        <v>0.8715976331360944</v>
+        <v>0.8810650887573963</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000232229', 'ENSG00000236552', 'ENSG00000277383', 'ENSG00000225178', 'ENSG00000213442', 'ENSG00000272906', 'ENSG00000276791', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000276791', 'ENSG00000236552', 'ENSG00000269893', 'ENSG00000215030', 'ENSG00000225178', 'ENSG00000272906', 'ENSG00000232229'}</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000277383'}</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'CTD-2270P14.5', 'RPL13AP5', 'SNHG8', 'RPL13P12', 'RPSAP58', 'RP11-533E19.7', 'LINC00865']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>['CTD-3001H11.2']</t>
         </is>
       </c>
     </row>
@@ -3482,24 +4952,39 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.8038461538461535</v>
+        <v>0.8141025641025639</v>
       </c>
       <c r="D99" t="n">
-        <v>0.883333333333333</v>
+        <v>0.8956278763971069</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000232229', 'ENSG00000236552', 'ENSG00000277383', 'ENSG00000225178', 'ENSG00000213442', 'ENSG00000222020', 'ENSG00000272906', 'ENSG00000276791', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000276791', 'ENSG00000236552', 'ENSG00000269893', 'ENSG00000215030', 'ENSG00000225178', 'ENSG00000277383', 'ENSG00000272906', 'ENSG00000232229'}</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000222020'}</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'CTD-2270P14.5', 'RPL13AP5', 'SNHG8', 'RPL13P12', 'RPSAP58', 'CTD-3001H11.2', 'RP11-533E19.7', 'LINC00865']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>['AC062017.1']</t>
         </is>
       </c>
     </row>
@@ -3513,24 +4998,39 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.8038461538461535</v>
+        <v>0.8115384615384615</v>
       </c>
       <c r="D100" t="n">
-        <v>0.874687705456936</v>
+        <v>0.8892504930966466</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000232229', 'ENSG00000236552', 'ENSG00000277383', 'ENSG00000225178', 'ENSG00000269893', 'ENSG00000213442', 'ENSG00000222020', 'ENSG00000272906', 'ENSG00000276791', 'ENSG00000272677'}</t>
+          <t>{'ENSG00000213442', 'ENSG00000276791', 'ENSG00000236552', 'ENSG00000269893', 'ENSG00000215030', 'ENSG00000225178', 'ENSG00000277383', 'ENSG00000272906', 'ENSG00000232229', 'ENSG00000222020'}</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000272677'}</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>['RPL18AP3', 'CTD-2270P14.5', 'RPL13AP5', 'SNHG8', 'RPL13P12', 'RPSAP58', 'CTD-3001H11.2', 'RP11-533E19.7', 'LINC00865', 'AC062017.1']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>['RP11-127B20.3']</t>
         </is>
       </c>
     </row>
@@ -3544,24 +5044,39 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.8256410256410256</v>
+        <v>0.8217948717948717</v>
       </c>
       <c r="D101" t="n">
-        <v>0.903550295857988</v>
+        <v>0.9068376068376066</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000232229', 'ENSG00000236552', 'ENSG00000277383', 'ENSG00000225178', 'ENSG00000269893', 'ENSG00000225864', 'ENSG00000213442', 'ENSG00000222020', 'ENSG00000272906', 'ENSG00000276791', 'ENSG00000272677'}</t>
+          <t>{'ENSG00000272677', 'ENSG00000213442', 'ENSG00000276791', 'ENSG00000236552', 'ENSG00000215030', 'ENSG00000269893', 'ENSG00000225178', 'ENSG00000277383', 'ENSG00000272906', 'ENSG00000232229', 'ENSG00000222020'}</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000225864'}</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>['RP11-127B20.3', 'RPL18AP3', 'CTD-2270P14.5', 'RPL13AP5', 'RPL13P12', 'SNHG8', 'RPSAP58', 'CTD-3001H11.2', 'RP11-533E19.7', 'LINC00865', 'AC062017.1']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>['HCG4P11']</t>
         </is>
       </c>
     </row>
@@ -3575,24 +5090,39 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.829487179487179</v>
+        <v>0.8346153846153844</v>
       </c>
       <c r="D102" t="n">
-        <v>0.89861932938856</v>
+        <v>0.9063116370808676</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000232229', 'ENSG00000236552', 'ENSG00000277383', 'ENSG00000225178', 'ENSG00000269893', 'ENSG00000225864', 'ENSG00000213442', 'ENSG00000228205', 'ENSG00000222020', 'ENSG00000272906', 'ENSG00000276791', 'ENSG00000272677'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000213442', 'ENSG00000272677', 'ENSG00000236552', 'ENSG00000276791', 'ENSG00000215030', 'ENSG00000269893', 'ENSG00000225178', 'ENSG00000277383', 'ENSG00000272906', 'ENSG00000232229', 'ENSG00000222020'}</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000228205'}</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'RPL18AP3', 'RP11-127B20.3', 'RPL13AP5', 'CTD-2270P14.5', 'RPL13P12', 'SNHG8', 'RPSAP58', 'CTD-3001H11.2', 'RP11-533E19.7', 'LINC00865', 'AC062017.1']</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>['RP11-778D9.4']</t>
         </is>
       </c>
     </row>
@@ -3606,24 +5136,39 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.8256410256410256</v>
+        <v>0.8205128205128204</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9286653517422745</v>
+        <v>0.9406311637080866</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000232229', 'ENSG00000231351', 'ENSG00000236552', 'ENSG00000277383', 'ENSG00000225178', 'ENSG00000269893', 'ENSG00000225864', 'ENSG00000213442', 'ENSG00000228205', 'ENSG00000222020', 'ENSG00000272906', 'ENSG00000276791', 'ENSG00000272677'}</t>
+          <t>{'ENSG00000272677', 'ENSG00000225864', 'ENSG00000213442', 'ENSG00000228205', 'ENSG00000236552', 'ENSG00000276791', 'ENSG00000215030', 'ENSG00000269893', 'ENSG00000225178', 'ENSG00000277383', 'ENSG00000272906', 'ENSG00000232229', 'ENSG00000222020'}</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000231351'}</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>['RP11-127B20.3', 'HCG4P11', 'RPL18AP3', 'RP11-778D9.4', 'RPL13AP5', 'CTD-2270P14.5', 'RPL13P12', 'SNHG8', 'RPSAP58', 'CTD-3001H11.2', 'RP11-533E19.7', 'LINC00865', 'AC062017.1']</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>['AC111200.7']</t>
         </is>
       </c>
     </row>
@@ -3637,24 +5182,39 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.8205128205128205</v>
+        <v>0.8256410256410255</v>
       </c>
       <c r="D104" t="n">
-        <v>0.924589086127547</v>
+        <v>0.9346482577251805</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000232229', 'ENSG00000231351', 'ENSG00000236552', 'ENSG00000273599', 'ENSG00000277383', 'ENSG00000225178', 'ENSG00000269893', 'ENSG00000225864', 'ENSG00000213442', 'ENSG00000228205', 'ENSG00000222020', 'ENSG00000272906', 'ENSG00000276791', 'ENSG00000272677'}</t>
+          <t>{'ENSG00000272677', 'ENSG00000225864', 'ENSG00000213442', 'ENSG00000228205', 'ENSG00000236552', 'ENSG00000231351', 'ENSG00000276791', 'ENSG00000215030', 'ENSG00000269893', 'ENSG00000225178', 'ENSG00000277383', 'ENSG00000272906', 'ENSG00000232229', 'ENSG00000222020'}</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000273599'}</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>['RP11-127B20.3', 'HCG4P11', 'RPL18AP3', 'RP11-778D9.4', 'RPL13AP5', 'AC111200.7', 'CTD-2270P14.5', 'RPL13P12', 'SNHG8', 'RPSAP58', 'CTD-3001H11.2', 'RP11-533E19.7', 'LINC00865', 'AC062017.1']</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>['RP11-59C5.3']</t>
         </is>
       </c>
     </row>
@@ -3668,24 +5228,39 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.8076923076923075</v>
+        <v>0.8217948717948713</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9250493096646946</v>
+        <v>0.9356344510190662</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000232229', 'ENSG00000231351', 'ENSG00000236552', 'ENSG00000273599', 'ENSG00000277383', 'ENSG00000225178', 'ENSG00000269893', 'ENSG00000225864', 'ENSG00000213442', 'ENSG00000228205', 'ENSG00000222020', 'ENSG00000272906', 'ENSG00000276791', 'ENSG00000265393', 'ENSG00000272677'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000213442', 'ENSG00000228205', 'ENSG00000236552', 'ENSG00000272677', 'ENSG00000231351', 'ENSG00000276791', 'ENSG00000273599', 'ENSG00000215030', 'ENSG00000269893', 'ENSG00000225178', 'ENSG00000277383', 'ENSG00000272906', 'ENSG00000232229', 'ENSG00000222020'}</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000265393'}</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'RPL18AP3', 'RP11-778D9.4', 'RPL13AP5', 'RP11-127B20.3', 'AC111200.7', 'CTD-2270P14.5', 'RP11-59C5.3', 'RPL13P12', 'SNHG8', 'RPSAP58', 'CTD-3001H11.2', 'RP11-533E19.7', 'LINC00865', 'AC062017.1']</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>['CTD-2517M22.17']</t>
         </is>
       </c>
     </row>
@@ -3699,24 +5274,39 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.8346153846153841</v>
+        <v>0.8474358974358971</v>
       </c>
       <c r="D106" t="n">
-        <v>0.92965154503616</v>
+        <v>0.9424063116370804</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000232229', 'ENSG00000231351', 'ENSG00000236552', 'ENSG00000273599', 'ENSG00000277383', 'ENSG00000225178', 'ENSG00000269893', 'ENSG00000225864', 'ENSG00000213442', 'ENSG00000272256', 'ENSG00000228205', 'ENSG00000222020', 'ENSG00000272906', 'ENSG00000276791', 'ENSG00000265393', 'ENSG00000272677'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000213442', 'ENSG00000228205', 'ENSG00000236552', 'ENSG00000265393', 'ENSG00000231351', 'ENSG00000272677', 'ENSG00000276791', 'ENSG00000273599', 'ENSG00000215030', 'ENSG00000269893', 'ENSG00000225178', 'ENSG00000277383', 'ENSG00000272906', 'ENSG00000232229', 'ENSG00000222020'}</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000272256'}</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'RPL18AP3', 'RP11-778D9.4', 'RPL13AP5', 'CTD-2517M22.17', 'AC111200.7', 'RP11-127B20.3', 'CTD-2270P14.5', 'RP11-59C5.3', 'RPL13P12', 'SNHG8', 'RPSAP58', 'CTD-3001H11.2', 'RP11-533E19.7', 'LINC00865', 'AC062017.1']</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>['RP11-489E7.4']</t>
         </is>
       </c>
     </row>
@@ -3730,24 +5320,39 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.8320512820512815</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9280078895463511</v>
+        <v>0.938264299802761</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000232229', 'ENSG00000231351', 'ENSG00000236552', 'ENSG00000273599', 'ENSG00000277383', 'ENSG00000225178', 'ENSG00000269893', 'ENSG00000225864', 'ENSG00000213442', 'ENSG00000272256', 'ENSG00000228205', 'ENSG00000222020', 'ENSG00000226085', 'ENSG00000272906', 'ENSG00000276791', 'ENSG00000265393', 'ENSG00000272677'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000213442', 'ENSG00000228205', 'ENSG00000236552', 'ENSG00000265393', 'ENSG00000231351', 'ENSG00000272256', 'ENSG00000272677', 'ENSG00000276791', 'ENSG00000273599', 'ENSG00000215030', 'ENSG00000269893', 'ENSG00000225178', 'ENSG00000277383', 'ENSG00000272906', 'ENSG00000232229', 'ENSG00000222020'}</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000226085'}</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'RPL18AP3', 'RP11-778D9.4', 'RPL13AP5', 'CTD-2517M22.17', 'AC111200.7', 'RP11-489E7.4', 'RP11-127B20.3', 'CTD-2270P14.5', 'RP11-59C5.3', 'RPL13P12', 'SNHG8', 'RPSAP58', 'CTD-3001H11.2', 'RP11-533E19.7', 'LINC00865', 'AC062017.1']</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>['UQCRFS1P1']</t>
         </is>
       </c>
     </row>
@@ -3761,24 +5366,39 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.8769230769230765</v>
+        <v>0.8743589743589741</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9408941485864559</v>
+        <v>0.9451019066403681</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000231351', 'ENSG00000277383', 'ENSG00000226085', 'ENSG00000272906', 'ENSG00000232229', 'ENSG00000265393', 'ENSG00000236552', 'ENSG00000225178', 'ENSG00000225864', 'ENSG00000272677', 'ENSG00000272256', 'ENSG00000222020', 'ENSG00000278771', 'ENSG00000276791', 'ENSG00000273599', 'ENSG00000228205', 'ENSG00000213442', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000213442', 'ENSG00000265393', 'ENSG00000272677', 'ENSG00000272256', 'ENSG00000231351', 'ENSG00000276791', 'ENSG00000228205', 'ENSG00000236552', 'ENSG00000273599', 'ENSG00000215030', 'ENSG00000269893', 'ENSG00000226085', 'ENSG00000225178', 'ENSG00000277383', 'ENSG00000272906', 'ENSG00000232229', 'ENSG00000222020'}</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000278771'}</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'RPL18AP3', 'CTD-2517M22.17', 'RP11-127B20.3', 'RP11-489E7.4', 'AC111200.7', 'CTD-2270P14.5', 'RP11-778D9.4', 'RPL13AP5', 'RP11-59C5.3', 'RPL13P12', 'SNHG8', 'UQCRFS1P1', 'RPSAP58', 'CTD-3001H11.2', 'RP11-533E19.7', 'LINC00865', 'AC062017.1']</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>['Metazoa_SRP']</t>
         </is>
       </c>
     </row>
@@ -3792,24 +5412,39 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.8730769230769231</v>
+        <v>0.8807692307692305</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9412557527942145</v>
+        <v>0.9493096646942798</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>{'ENSG00000215030', 'ENSG00000231351', 'ENSG00000240877', 'ENSG00000277383', 'ENSG00000226085', 'ENSG00000272906', 'ENSG00000232229', 'ENSG00000265393', 'ENSG00000236552', 'ENSG00000225178', 'ENSG00000225864', 'ENSG00000272677', 'ENSG00000272256', 'ENSG00000222020', 'ENSG00000278771', 'ENSG00000276791', 'ENSG00000273599', 'ENSG00000228205', 'ENSG00000213442', 'ENSG00000269893'}</t>
+          <t>{'ENSG00000225864', 'ENSG00000213442', 'ENSG00000265393', 'ENSG00000231351', 'ENSG00000278771', 'ENSG00000215030', 'ENSG00000272906', 'ENSG00000272677', 'ENSG00000273599', 'ENSG00000226085', 'ENSG00000225178', 'ENSG00000272256', 'ENSG00000277383', 'ENSG00000276791', 'ENSG00000228205', 'ENSG00000236552', 'ENSG00000269893', 'ENSG00000232229', 'ENSG00000222020'}</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000203875'}</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ENSG00000240877'}</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>['HCG4P11', 'RPL18AP3', 'CTD-2517M22.17', 'AC111200.7', 'Metazoa_SRP', 'RPL13P12', 'RP11-533E19.7', 'RP11-127B20.3', 'RP11-59C5.3', 'UQCRFS1P1', 'RPSAP58', 'RP11-489E7.4', 'CTD-3001H11.2', 'CTD-2270P14.5', 'RP11-778D9.4', 'RPL13AP5', 'SNHG8', 'LINC00865', 'AC062017.1']</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>['SNHG5']</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>['RN7SL521P']</t>
         </is>
       </c>
     </row>
